--- a/nodes_source_analyses/buildings/buildings_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/buildings/buildings_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -446,9 +454,6 @@
     <t>Output to csv</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Technical</t>
   </si>
   <si>
@@ -840,6 +845,30 @@
   <si>
     <t>this 1.0 kWp/m2 intensity gives the output capacity:</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rake import:node NODE="nodename"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> the button to update the node attributes on ETSource. 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -851,7 +880,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1051,11 +1080,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1732,19 +1756,19 @@
     <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1758,7 +1782,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1841,7 +1865,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1861,8 +1885,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1939,12 +1963,12 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1954,42 +1978,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2249,80 +2273,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2574,7 +2533,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3015,32 +2974,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="50" customWidth="1"/>
     <col min="2" max="2" width="8" style="34" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="34"/>
+    <col min="3" max="3" width="38.42578125" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="48" customFormat="1">
+    <row r="1" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="49"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>22</v>
@@ -3049,16 +3008,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>24</v>
@@ -3067,29 +3026,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="67" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="68"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="69"/>
       <c r="C10" s="70"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="69" t="s">
         <v>83</v>
@@ -3098,33 +3057,33 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="69"/>
       <c r="C12" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="69"/>
       <c r="C13" s="72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="69"/>
       <c r="C14" s="70" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="69"/>
       <c r="C15" s="70"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="69" t="s">
         <v>88</v>
@@ -3133,49 +3092,49 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="69"/>
       <c r="C17" s="74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="69"/>
       <c r="C18" s="75" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="69"/>
       <c r="C19" s="76" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="77"/>
       <c r="C20" s="78" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="77"/>
       <c r="C21" s="79" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="77"/>
       <c r="C22" s="80" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="77"/>
       <c r="C23" s="81" t="s">
@@ -3185,41 +3144,36 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:K14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="3" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="3" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="3" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="4"/>
+    <col min="9" max="9" width="42.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -3229,49 +3183,49 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="192" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="195"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="197"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="199"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="198"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="200"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="202"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="17" thickBot="1">
+    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -3281,7 +3235,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -3292,7 +3246,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="18">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="42"/>
       <c r="C8" s="26" t="s">
         <v>38</v>
@@ -3313,7 +3267,7 @@
       </c>
       <c r="J8" s="88"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="18">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="23"/>
       <c r="D9" s="52"/>
@@ -3324,10 +3278,10 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
       <c r="C10" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="23"/>
@@ -3337,10 +3291,10 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>5</v>
@@ -3353,11 +3307,11 @@
       <c r="G11" s="63"/>
       <c r="H11" s="51"/>
       <c r="I11" s="180" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="17" thickBot="1">
+    <row r="12" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
       <c r="C12" s="55" t="s">
         <v>41</v>
@@ -3377,7 +3331,7 @@
       <c r="J12" s="89"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="17" thickBot="1">
+    <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
       <c r="C13" s="54" t="s">
         <v>43</v>
@@ -3397,7 +3351,7 @@
       <c r="J13" s="89"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="17" thickBot="1">
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="36"/>
       <c r="C14" s="56" t="s">
@@ -3418,7 +3372,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="17" thickBot="1">
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="36"/>
       <c r="C15" s="56" t="s">
@@ -3440,14 +3394,14 @@
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="36"/>
       <c r="C16" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="35">
         <f>'Research data'!G7</f>
@@ -3459,19 +3413,19 @@
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="180" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16" s="89"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="36"/>
       <c r="C17" s="56" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="58">
         <v>0</v>
@@ -3482,13 +3436,13 @@
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J17" s="89"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="17" thickBot="1">
+    <row r="18" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="56" t="s">
         <v>50</v>
@@ -3509,7 +3463,7 @@
       </c>
       <c r="J18" s="89"/>
     </row>
-    <row r="19" spans="1:12" ht="17" thickBot="1">
+    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="56" t="s">
         <v>66</v>
@@ -3530,7 +3484,7 @@
       </c>
       <c r="J19" s="89"/>
     </row>
-    <row r="20" spans="1:12" ht="17" thickBot="1">
+    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36"/>
       <c r="C20" s="56" t="s">
         <v>51</v>
@@ -3551,7 +3505,7 @@
       </c>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="1:12" ht="17" thickBot="1">
+    <row r="21" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36"/>
       <c r="C21" s="56" t="s">
         <v>52</v>
@@ -3572,7 +3526,7 @@
       </c>
       <c r="J21" s="89"/>
     </row>
-    <row r="22" spans="1:12" ht="17" thickBot="1">
+    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36"/>
       <c r="C22" s="56" t="s">
         <v>53</v>
@@ -3593,7 +3547,7 @@
       </c>
       <c r="J22" s="89"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="36"/>
       <c r="C23" s="83"/>
       <c r="D23" s="84"/>
@@ -3604,10 +3558,10 @@
       <c r="I23" s="34"/>
       <c r="J23" s="89"/>
     </row>
-    <row r="24" spans="1:12" ht="17" thickBot="1">
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36"/>
       <c r="C24" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="84"/>
       <c r="E24" s="34"/>
@@ -3617,7 +3571,7 @@
       <c r="I24" s="34"/>
       <c r="J24" s="89"/>
     </row>
-    <row r="25" spans="1:12" ht="17" thickBot="1">
+    <row r="25" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="56" t="s">
         <v>54</v>
@@ -3635,11 +3589,11 @@
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J25" s="91"/>
     </row>
-    <row r="26" spans="1:12" ht="17" thickBot="1">
+    <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="56" t="s">
         <v>55</v>
@@ -3656,11 +3610,11 @@
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J26" s="91"/>
     </row>
-    <row r="27" spans="1:12" ht="17" thickBot="1">
+    <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="56" t="s">
         <v>15</v>
@@ -3678,11 +3632,11 @@
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="89"/>
     </row>
-    <row r="28" spans="1:12" ht="17" thickBot="1">
+    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="56" t="s">
         <v>56</v>
@@ -3695,7 +3649,7 @@
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="179" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="35" t="s">
@@ -3703,7 +3657,7 @@
       </c>
       <c r="J28" s="89"/>
     </row>
-    <row r="29" spans="1:12" ht="17" thickBot="1">
+    <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36"/>
       <c r="C29" s="56" t="s">
         <v>57</v>
@@ -3725,7 +3679,7 @@
       </c>
       <c r="J29" s="89"/>
     </row>
-    <row r="30" spans="1:12" ht="17" thickBot="1">
+    <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="56" t="s">
         <v>58</v>
@@ -3746,7 +3700,7 @@
       </c>
       <c r="J30" s="89"/>
     </row>
-    <row r="31" spans="1:12" ht="17" thickBot="1">
+    <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="36"/>
       <c r="C31" s="56" t="s">
         <v>59</v>
@@ -3763,11 +3717,11 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="182" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J31" s="89"/>
     </row>
-    <row r="32" spans="1:12" ht="17" thickBot="1">
+    <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
       <c r="C32" s="56" t="s">
         <v>62</v>
@@ -3788,7 +3742,7 @@
       </c>
       <c r="J32" s="89"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
       <c r="C33" s="56" t="s">
         <v>45</v>
@@ -3807,7 +3761,7 @@
       </c>
       <c r="J33" s="89"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="36"/>
       <c r="C34" s="83"/>
       <c r="D34" s="84"/>
@@ -3818,7 +3772,7 @@
       <c r="I34" s="87"/>
       <c r="J34" s="89"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="36"/>
       <c r="C35" s="23" t="s">
         <v>8</v>
@@ -3831,7 +3785,7 @@
       <c r="I35" s="87"/>
       <c r="J35" s="89"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
       <c r="C36" s="54" t="s">
         <v>44</v>
@@ -3849,11 +3803,11 @@
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="180" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J36" s="89"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="36"/>
       <c r="C37" s="56" t="s">
         <v>60</v>
@@ -3871,11 +3825,11 @@
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J37" s="89"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="56" t="s">
         <v>61</v>
@@ -3893,11 +3847,11 @@
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="180" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J38" s="89"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="36"/>
       <c r="C39" s="82" t="s">
         <v>42</v>
@@ -3916,7 +3870,7 @@
       </c>
       <c r="J39" s="89"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="36"/>
       <c r="C40" s="62" t="s">
         <v>63</v>
@@ -3935,7 +3889,7 @@
       </c>
       <c r="J40" s="89"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36"/>
       <c r="C41" s="56" t="s">
         <v>16</v>
@@ -3954,7 +3908,7 @@
       </c>
       <c r="J41" s="89"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36"/>
       <c r="C42" s="55" t="s">
         <v>64</v>
@@ -3973,7 +3927,7 @@
       </c>
       <c r="J42" s="89"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
       <c r="C43" s="55" t="s">
         <v>67</v>
@@ -3992,7 +3946,7 @@
       </c>
       <c r="J43" s="89"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="36"/>
       <c r="C44" s="56" t="s">
         <v>65</v>
@@ -4011,7 +3965,7 @@
       </c>
       <c r="J44" s="89"/>
     </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="39"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -4022,7 +3976,7 @@
       <c r="I45" s="40"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
@@ -4032,7 +3986,7 @@
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
     </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1">
+    <row r="47" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4042,7 +3996,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -4052,7 +4006,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -4062,7 +4016,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -4072,7 +4026,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -4082,7 +4036,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -4092,7 +4046,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -4102,7 +4056,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -4112,7 +4066,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -4122,7 +4076,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -4132,7 +4086,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -4142,7 +4096,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -4152,7 +4106,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -4162,7 +4116,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -4172,7 +4126,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -4182,7 +4136,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -4192,7 +4146,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -4202,7 +4156,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -4212,7 +4166,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -4222,7 +4176,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -4232,7 +4186,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -4248,43 +4202,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4299,25 +4216,25 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="97" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="97" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="97" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="97" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="97" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="97" customWidth="1"/>
-    <col min="8" max="8" width="3.25" style="97" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="97" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="97" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="97" customWidth="1"/>
-    <col min="12" max="12" width="3.375" style="97" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="97" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="97" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="97" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="97" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="97" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="97" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="97" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="97" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" style="97" customWidth="1"/>
     <col min="13" max="13" width="51" style="97" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="97"/>
+    <col min="14" max="16384" width="10.7109375" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102"/>
       <c r="D2" s="102"/>
@@ -4331,10 +4248,10 @@
       <c r="L2" s="102"/>
       <c r="M2" s="102"/>
     </row>
-    <row r="3" spans="2:13" s="44" customFormat="1">
+    <row r="3" spans="2:13" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -4346,7 +4263,7 @@
       </c>
       <c r="H3" s="92"/>
       <c r="I3" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" s="92"/>
       <c r="K3" s="92" t="s">
@@ -4357,7 +4274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="106"/>
       <c r="C4" s="121"/>
       <c r="D4" s="121"/>
@@ -4371,10 +4288,10 @@
       <c r="L4" s="123"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="2:13" ht="16" thickBot="1">
+    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="106"/>
       <c r="C5" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -4387,10 +4304,10 @@
       <c r="L5" s="98"/>
       <c r="M5" s="124"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1">
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="106"/>
       <c r="C6" s="152" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -4411,7 +4328,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="124"/>
     </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="106"/>
       <c r="C7" s="152" t="s">
         <v>34</v>
@@ -4419,7 +4336,7 @@
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="185">
         <f>G8*G11*1000000/1000</f>
@@ -4431,18 +4348,18 @@
       <c r="K7" s="142"/>
       <c r="L7" s="98"/>
       <c r="M7" s="188" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="16" thickBot="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="106"/>
       <c r="C8" s="152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="152"/>
       <c r="E8" s="152"/>
       <c r="F8" s="154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="153">
         <f>I8</f>
@@ -4457,10 +4374,10 @@
       <c r="K8" s="142"/>
       <c r="L8" s="98"/>
       <c r="M8" s="188" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="106"/>
       <c r="C9" s="157"/>
       <c r="D9" s="157"/>
@@ -4473,10 +4390,10 @@
       <c r="K9" s="142"/>
       <c r="L9" s="98"/>
       <c r="M9" s="188" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="106"/>
       <c r="C10" s="53" t="s">
         <v>8</v>
@@ -4492,10 +4409,10 @@
       <c r="L10" s="98"/>
       <c r="M10" s="124"/>
     </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1">
+    <row r="11" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="106"/>
       <c r="C11" s="159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="159"/>
       <c r="E11" s="159"/>
@@ -4515,7 +4432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="106"/>
       <c r="C12" s="162" t="s">
         <v>1</v>
@@ -4534,10 +4451,10 @@
       <c r="K12" s="142"/>
       <c r="L12" s="98"/>
       <c r="M12" s="179" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="106"/>
       <c r="C13" s="165" t="s">
         <v>6</v>
@@ -4561,7 +4478,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="124"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="106"/>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -4575,10 +4492,10 @@
       <c r="L14" s="98"/>
       <c r="M14" s="124"/>
     </row>
-    <row r="15" spans="2:13" ht="16" thickBot="1">
+    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="106"/>
       <c r="C15" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -4591,10 +4508,10 @@
       <c r="L15" s="98"/>
       <c r="M15" s="124"/>
     </row>
-    <row r="16" spans="2:13" ht="16" thickBot="1">
+    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="106"/>
       <c r="C16" s="152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -4612,15 +4529,15 @@
       <c r="L16" s="126"/>
       <c r="M16" s="124"/>
     </row>
-    <row r="17" spans="2:13" ht="16" thickBot="1">
+    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="106"/>
       <c r="C17" s="152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="165"/>
       <c r="E17" s="165"/>
       <c r="F17" s="154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="167">
         <f>I17</f>
@@ -4639,15 +4556,15 @@
       <c r="L17" s="126"/>
       <c r="M17" s="135"/>
     </row>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
+    <row r="18" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="106"/>
       <c r="C18" s="152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="169"/>
       <c r="E18" s="169"/>
       <c r="F18" s="154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="170">
         <f>I18</f>
@@ -4665,10 +4582,10 @@
       </c>
       <c r="L18" s="98"/>
       <c r="M18" s="179" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="16" thickBot="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="171" t="s">
         <v>9</v>
@@ -4676,7 +4593,7 @@
       <c r="D19" s="171"/>
       <c r="E19" s="171"/>
       <c r="F19" s="154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="158"/>
       <c r="H19" s="158"/>
@@ -4689,15 +4606,15 @@
       <c r="L19" s="98"/>
       <c r="M19" s="130"/>
     </row>
-    <row r="20" spans="2:13" ht="16" thickBot="1">
+    <row r="20" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="106"/>
       <c r="C20" s="171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="171"/>
       <c r="E20" s="171"/>
       <c r="F20" s="154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="158"/>
       <c r="H20" s="158"/>
@@ -4710,7 +4627,7 @@
       <c r="L20" s="98"/>
       <c r="M20" s="130"/>
     </row>
-    <row r="21" spans="2:13" ht="16" thickBot="1">
+    <row r="21" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="171" t="s">
         <v>10</v>
@@ -4731,7 +4648,7 @@
       <c r="L21" s="98"/>
       <c r="M21" s="124"/>
     </row>
-    <row r="22" spans="2:13" ht="16" thickBot="1">
+    <row r="22" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="171" t="s">
         <v>10</v>
@@ -4739,7 +4656,7 @@
       <c r="D22" s="172"/>
       <c r="E22" s="172"/>
       <c r="F22" s="154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="167">
         <f>I22</f>
@@ -4755,10 +4672,10 @@
       <c r="L22" s="98"/>
       <c r="M22" s="124"/>
     </row>
-    <row r="23" spans="2:13" ht="16" thickBot="1">
+    <row r="23" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="106"/>
       <c r="C23" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="173"/>
       <c r="E23" s="173"/>
@@ -4776,15 +4693,15 @@
       <c r="L23" s="98"/>
       <c r="M23" s="124"/>
     </row>
-    <row r="24" spans="2:13" ht="16" thickBot="1">
+    <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="106"/>
       <c r="C24" s="169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="175"/>
       <c r="E24" s="175"/>
       <c r="F24" s="154" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="176">
         <f>K24</f>
@@ -4799,7 +4716,7 @@
       <c r="L24" s="98"/>
       <c r="M24" s="124"/>
     </row>
-    <row r="25" spans="2:13" ht="16" thickBot="1">
+    <row r="25" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="106"/>
       <c r="C25" s="169" t="s">
         <v>71</v>
@@ -4807,7 +4724,7 @@
       <c r="D25" s="177"/>
       <c r="E25" s="177"/>
       <c r="F25" s="154" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="167">
         <f>I25</f>
@@ -4823,7 +4740,7 @@
       <c r="L25" s="128"/>
       <c r="M25" s="134"/>
     </row>
-    <row r="26" spans="2:13" ht="16" thickBot="1">
+    <row r="26" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="106"/>
       <c r="C26" s="127"/>
       <c r="D26" s="129"/>
@@ -4839,11 +4756,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4858,22 +4770,22 @@
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="97" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="97" customWidth="1"/>
     <col min="2" max="2" width="4" style="97" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="97" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="97" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="97" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="97" customWidth="1"/>
-    <col min="7" max="8" width="12.75" style="99" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="100" customWidth="1"/>
-    <col min="10" max="10" width="76.375" style="97" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="97"/>
+    <col min="3" max="3" width="27.85546875" style="97" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="97" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="97" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="97" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="99" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" style="100" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" style="97" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102"/>
       <c r="D2" s="102"/>
@@ -4884,7 +4796,7 @@
       <c r="I2" s="104"/>
       <c r="J2" s="102"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="106"/>
       <c r="C3" s="23" t="s">
         <v>26</v>
@@ -4897,7 +4809,7 @@
       <c r="I3" s="107"/>
       <c r="J3" s="98"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="106"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
@@ -4908,7 +4820,7 @@
       <c r="I4" s="110"/>
       <c r="J4" s="98"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="111"/>
       <c r="C5" s="24" t="s">
         <v>35</v>
@@ -4926,16 +4838,16 @@
         <v>37</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="106"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -4946,7 +4858,7 @@
       <c r="I6" s="107"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="106"/>
       <c r="C7" s="139"/>
       <c r="D7" s="113"/>
@@ -4957,7 +4869,7 @@
       <c r="I7" s="117"/>
       <c r="J7" s="113"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="106"/>
       <c r="C8" s="145" t="s">
         <v>11</v>
@@ -4969,23 +4881,23 @@
         <v>13</v>
       </c>
       <c r="F8" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="147" t="s">
+      <c r="H8" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="148" t="s">
+      <c r="J8" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="61" t="s">
-        <v>138</v>
-      </c>
       <c r="K8" s="149"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="106"/>
       <c r="C9" s="145" t="s">
         <v>12</v>
@@ -4999,7 +4911,7 @@
       <c r="J9" s="146"/>
       <c r="K9" s="143"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="106"/>
       <c r="C10" s="143"/>
       <c r="D10" s="146"/>
@@ -5011,35 +4923,35 @@
       <c r="J10" s="146"/>
       <c r="K10" s="143"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="106"/>
       <c r="C11" s="145" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="142" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="142" t="s">
+      <c r="F11" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="147" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="147" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="150" t="s">
+      <c r="J11" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="151" t="s">
-        <v>142</v>
-      </c>
       <c r="K11" s="143"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="106"/>
       <c r="C12" s="145" t="s">
         <v>15</v>
@@ -5053,7 +4965,7 @@
       <c r="J12" s="146"/>
       <c r="K12" s="143"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="106"/>
       <c r="C13" s="142" t="s">
         <v>61</v>
@@ -5067,10 +4979,10 @@
       <c r="J13" s="137"/>
       <c r="K13" s="138"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="106"/>
       <c r="C14" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="137"/>
       <c r="E14" s="139"/>
@@ -5081,7 +4993,7 @@
       <c r="J14" s="137"/>
       <c r="K14" s="138"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="106"/>
       <c r="C15" s="114"/>
       <c r="D15" s="113"/>
@@ -5092,7 +5004,7 @@
       <c r="I15" s="110"/>
       <c r="J15" s="113"/>
     </row>
-    <row r="16" spans="1:11" s="138" customFormat="1">
+    <row r="16" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="97"/>
       <c r="B16" s="106"/>
       <c r="C16" s="97"/>
@@ -5105,7 +5017,7 @@
       <c r="J16" s="98"/>
       <c r="K16" s="97"/>
     </row>
-    <row r="17" spans="1:11" s="138" customFormat="1">
+    <row r="17" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="97"/>
       <c r="B17" s="106"/>
       <c r="C17" s="97"/>
@@ -5118,7 +5030,7 @@
       <c r="J17" s="113"/>
       <c r="K17" s="97"/>
     </row>
-    <row r="18" spans="1:11" s="138" customFormat="1">
+    <row r="18" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="97"/>
       <c r="B18" s="97"/>
       <c r="C18" s="97"/>
@@ -5131,7 +5043,7 @@
       <c r="J18" s="113"/>
       <c r="K18" s="97"/>
     </row>
-    <row r="19" spans="1:11" s="138" customFormat="1">
+    <row r="19" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="97"/>
       <c r="B19" s="97"/>
       <c r="C19" s="97"/>
@@ -5144,7 +5056,7 @@
       <c r="J19" s="118"/>
       <c r="K19" s="97"/>
     </row>
-    <row r="20" spans="1:11" s="138" customFormat="1">
+    <row r="20" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="97"/>
       <c r="B20" s="97"/>
       <c r="C20" s="97"/>
@@ -5157,7 +5069,7 @@
       <c r="J20" s="113"/>
       <c r="K20" s="97"/>
     </row>
-    <row r="21" spans="1:11" s="138" customFormat="1">
+    <row r="21" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="97"/>
       <c r="B21" s="97"/>
       <c r="C21" s="97"/>
@@ -5170,7 +5082,7 @@
       <c r="J21" s="113"/>
       <c r="K21" s="97"/>
     </row>
-    <row r="22" spans="1:11" s="138" customFormat="1">
+    <row r="22" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97"/>
       <c r="B22" s="97"/>
       <c r="C22" s="97"/>
@@ -5183,34 +5095,29 @@
       <c r="J22" s="113"/>
       <c r="K22" s="97"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I23" s="110"/>
       <c r="J23" s="113"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I24" s="110"/>
       <c r="J24" s="113"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I25" s="110"/>
       <c r="J25" s="113"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I26" s="117"/>
       <c r="J26" s="113"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I27" s="120"/>
       <c r="J27" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5225,17 +5132,17 @@
       <selection activeCell="E54" sqref="E54:H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="97" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="97" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="97"/>
-    <col min="4" max="4" width="7.5" style="97" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="97"/>
+    <col min="1" max="1" width="5.140625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="97"/>
+    <col min="4" max="4" width="7.42578125" style="97" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102"/>
       <c r="D2" s="102"/>
@@ -5250,7 +5157,7 @@
       <c r="M2" s="102"/>
       <c r="N2" s="105"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="111"/>
       <c r="C3" s="24" t="s">
         <v>0</v>
@@ -5269,7 +5176,7 @@
       <c r="M3" s="131"/>
       <c r="N3" s="132"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="106"/>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
@@ -5284,7 +5191,7 @@
       <c r="M4" s="98"/>
       <c r="N4" s="108"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="106"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
@@ -5299,7 +5206,7 @@
       <c r="M5" s="98"/>
       <c r="N5" s="108"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="106"/>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
@@ -5314,7 +5221,7 @@
       <c r="M6" s="98"/>
       <c r="N6" s="108"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="106"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
@@ -5329,7 +5236,7 @@
       <c r="M7" s="98"/>
       <c r="N7" s="108"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="106"/>
       <c r="C8" s="98"/>
       <c r="D8" s="98"/>
@@ -5344,7 +5251,7 @@
       <c r="M8" s="98"/>
       <c r="N8" s="108"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="106"/>
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
@@ -5359,7 +5266,7 @@
       <c r="M9" s="98"/>
       <c r="N9" s="108"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="106"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
@@ -5374,7 +5281,7 @@
       <c r="M10" s="98"/>
       <c r="N10" s="108"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="106"/>
       <c r="C11" s="98"/>
       <c r="D11" s="98"/>
@@ -5389,7 +5296,7 @@
       <c r="M11" s="98"/>
       <c r="N11" s="108"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="106"/>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
@@ -5404,10 +5311,10 @@
       <c r="M12" s="98"/>
       <c r="N12" s="108"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="106"/>
       <c r="C13" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="142"/>
       <c r="E13" s="142"/>
@@ -5421,10 +5328,10 @@
       <c r="M13" s="98"/>
       <c r="N13" s="108"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="106"/>
       <c r="C14" s="142" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="142"/>
       <c r="E14" s="142"/>
@@ -5438,7 +5345,7 @@
       <c r="M14" s="98"/>
       <c r="N14" s="108"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="106"/>
       <c r="C15" s="142"/>
       <c r="D15" s="142"/>
@@ -5453,7 +5360,7 @@
       <c r="M15" s="98"/>
       <c r="N15" s="108"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="106"/>
       <c r="C16" s="142"/>
       <c r="D16" s="142"/>
@@ -5468,7 +5375,7 @@
       <c r="M16" s="98"/>
       <c r="N16" s="108"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="106"/>
       <c r="C17" s="142"/>
       <c r="D17" s="142"/>
@@ -5483,7 +5390,7 @@
       <c r="M17" s="98"/>
       <c r="N17" s="108"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="106"/>
       <c r="C18" s="142"/>
       <c r="D18" s="142"/>
@@ -5498,7 +5405,7 @@
       <c r="M18" s="98"/>
       <c r="N18" s="108"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="106"/>
       <c r="C19" s="142"/>
       <c r="D19" s="142"/>
@@ -5513,7 +5420,7 @@
       <c r="M19" s="98"/>
       <c r="N19" s="108"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="106"/>
       <c r="C20" s="142"/>
       <c r="D20" s="142"/>
@@ -5528,7 +5435,7 @@
       <c r="M20" s="98"/>
       <c r="N20" s="108"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="106"/>
       <c r="C21" s="142"/>
       <c r="D21" s="142"/>
@@ -5543,7 +5450,7 @@
       <c r="M21" s="98"/>
       <c r="N21" s="108"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="106"/>
       <c r="C22" s="142"/>
       <c r="D22" s="142"/>
@@ -5558,7 +5465,7 @@
       <c r="M22" s="98"/>
       <c r="N22" s="108"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="106"/>
       <c r="C23" s="142"/>
       <c r="D23" s="142"/>
@@ -5573,7 +5480,7 @@
       <c r="M23" s="98"/>
       <c r="N23" s="108"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="106"/>
       <c r="C24" s="142"/>
       <c r="D24" s="142"/>
@@ -5582,7 +5489,7 @@
       </c>
       <c r="F24" s="142"/>
       <c r="G24" s="143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="142"/>
       <c r="I24" s="98"/>
@@ -5592,7 +5499,7 @@
       <c r="M24" s="98"/>
       <c r="N24" s="108"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="106"/>
       <c r="C25" s="142"/>
       <c r="D25" s="142"/>
@@ -5607,13 +5514,13 @@
       <c r="M25" s="98"/>
       <c r="N25" s="108"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="106"/>
       <c r="C26" s="142"/>
       <c r="D26" s="142"/>
       <c r="E26" s="142"/>
       <c r="F26" s="142" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="143"/>
       <c r="H26" s="142"/>
@@ -5624,13 +5531,13 @@
       <c r="M26" s="98"/>
       <c r="N26" s="108"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="106"/>
       <c r="C27" s="142"/>
       <c r="D27" s="142"/>
       <c r="E27" s="142"/>
       <c r="F27" s="142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="142"/>
       <c r="H27" s="142"/>
@@ -5641,13 +5548,13 @@
       <c r="M27" s="98"/>
       <c r="N27" s="108"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="106"/>
       <c r="C28" s="142"/>
       <c r="D28" s="142"/>
       <c r="E28" s="143"/>
       <c r="F28" s="142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G28" s="143"/>
       <c r="H28" s="142"/>
@@ -5658,7 +5565,7 @@
       <c r="M28" s="98"/>
       <c r="N28" s="108"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="106"/>
       <c r="C29" s="142"/>
       <c r="D29" s="142"/>
@@ -5673,16 +5580,16 @@
       <c r="M29" s="98"/>
       <c r="N29" s="108"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="106"/>
       <c r="C30" s="142"/>
       <c r="D30" s="142"/>
       <c r="E30" s="143"/>
-      <c r="F30" s="201" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="201"/>
-      <c r="H30" s="202"/>
+      <c r="F30" s="192" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="192"/>
+      <c r="H30" s="193"/>
       <c r="I30" s="98"/>
       <c r="J30" s="98"/>
       <c r="K30" s="98"/>
@@ -5690,16 +5597,16 @@
       <c r="M30" s="98"/>
       <c r="N30" s="108"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="106"/>
       <c r="C31" s="142"/>
       <c r="D31" s="142"/>
       <c r="E31" s="143"/>
-      <c r="F31" s="201" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="201"/>
-      <c r="H31" s="202"/>
+      <c r="F31" s="192" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="192"/>
+      <c r="H31" s="193"/>
       <c r="I31" s="98"/>
       <c r="J31" s="98"/>
       <c r="K31" s="98"/>
@@ -5707,16 +5614,16 @@
       <c r="M31" s="98"/>
       <c r="N31" s="108"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="106"/>
       <c r="C32" s="142"/>
       <c r="D32" s="142"/>
       <c r="E32" s="143"/>
-      <c r="F32" s="201" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="201"/>
-      <c r="H32" s="202"/>
+      <c r="F32" s="192" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="192"/>
+      <c r="H32" s="193"/>
       <c r="I32" s="98"/>
       <c r="J32" s="98"/>
       <c r="K32" s="98"/>
@@ -5724,15 +5631,15 @@
       <c r="M32" s="98"/>
       <c r="N32" s="108"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="106"/>
       <c r="C33" s="142"/>
       <c r="D33" s="142"/>
-      <c r="F33" s="201" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="201"/>
-      <c r="H33" s="202"/>
+      <c r="F33" s="192" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="192"/>
+      <c r="H33" s="193"/>
       <c r="I33" s="98"/>
       <c r="J33" s="98"/>
       <c r="K33" s="98"/>
@@ -5740,15 +5647,15 @@
       <c r="M33" s="98"/>
       <c r="N33" s="108"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="106"/>
       <c r="C34" s="142"/>
       <c r="D34" s="142"/>
-      <c r="F34" s="201" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="201"/>
-      <c r="H34" s="202"/>
+      <c r="F34" s="192" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="192"/>
+      <c r="H34" s="193"/>
       <c r="I34" s="98"/>
       <c r="J34" s="98"/>
       <c r="K34" s="98"/>
@@ -5756,7 +5663,7 @@
       <c r="M34" s="98"/>
       <c r="N34" s="108"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="106"/>
       <c r="C35" s="142"/>
       <c r="D35" s="142"/>
@@ -5767,7 +5674,7 @@
       <c r="M35" s="98"/>
       <c r="N35" s="108"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="106"/>
       <c r="C36" s="142"/>
       <c r="D36" s="142"/>
@@ -5776,7 +5683,7 @@
         <v>0.16</v>
       </c>
       <c r="F36" s="143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" s="143"/>
       <c r="H36" s="142"/>
@@ -5787,7 +5694,7 @@
       <c r="M36" s="98"/>
       <c r="N36" s="108"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="106"/>
       <c r="C37" s="143"/>
       <c r="D37" s="142"/>
@@ -5802,7 +5709,7 @@
       <c r="M37" s="98"/>
       <c r="N37" s="108"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="106"/>
       <c r="C38" s="142"/>
       <c r="D38" s="142"/>
@@ -5810,7 +5717,7 @@
         <v>100</v>
       </c>
       <c r="F38" s="143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" s="143" t="s">
         <v>44</v>
@@ -5823,7 +5730,7 @@
       <c r="M38" s="98"/>
       <c r="N38" s="108"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="106"/>
       <c r="C39" s="142"/>
       <c r="D39" s="142"/>
@@ -5835,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H39" s="142"/>
       <c r="I39" s="98"/>
@@ -5845,7 +5752,7 @@
       <c r="M39" s="98"/>
       <c r="N39" s="108"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="106"/>
       <c r="D40" s="142"/>
       <c r="E40" s="142"/>
@@ -5859,7 +5766,7 @@
       <c r="M40" s="98"/>
       <c r="N40" s="108"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="106"/>
       <c r="C41" s="143"/>
       <c r="D41" s="142"/>
@@ -5874,7 +5781,7 @@
       <c r="M41" s="98"/>
       <c r="N41" s="108"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="106"/>
       <c r="C42" s="142"/>
       <c r="D42" s="142"/>
@@ -5889,7 +5796,7 @@
       <c r="M42" s="98"/>
       <c r="N42" s="108"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="106"/>
       <c r="C43" s="142"/>
       <c r="D43" s="142"/>
@@ -5904,10 +5811,10 @@
       <c r="M43" s="98"/>
       <c r="N43" s="108"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="106"/>
       <c r="C44" s="142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="142"/>
       <c r="E44" s="142"/>
@@ -5921,7 +5828,7 @@
       <c r="M44" s="98"/>
       <c r="N44" s="108"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="106"/>
       <c r="C45" s="143"/>
       <c r="D45" s="143"/>
@@ -5936,7 +5843,7 @@
       <c r="M45" s="98"/>
       <c r="N45" s="108"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="106"/>
       <c r="C46" s="143"/>
       <c r="D46" s="143"/>
@@ -5951,7 +5858,7 @@
       <c r="M46" s="98"/>
       <c r="N46" s="108"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="106"/>
       <c r="C47" s="143"/>
       <c r="D47" s="143"/>
@@ -5966,7 +5873,7 @@
       <c r="M47" s="98"/>
       <c r="N47" s="108"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="106"/>
       <c r="C48" s="143"/>
       <c r="D48" s="143"/>
@@ -5981,7 +5888,7 @@
       <c r="M48" s="98"/>
       <c r="N48" s="108"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="106"/>
       <c r="C49" s="143"/>
       <c r="D49" s="143"/>
@@ -5996,7 +5903,7 @@
       <c r="M49" s="98"/>
       <c r="N49" s="108"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="106"/>
       <c r="C50" s="143"/>
       <c r="D50" s="143"/>
@@ -6011,7 +5918,7 @@
       <c r="M50" s="98"/>
       <c r="N50" s="108"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="106"/>
       <c r="C51" s="143"/>
       <c r="D51" s="143"/>
@@ -6026,7 +5933,7 @@
       <c r="M51" s="98"/>
       <c r="N51" s="108"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="106"/>
       <c r="C52" s="143"/>
       <c r="D52" s="143"/>
@@ -6037,7 +5944,7 @@
       <c r="M52" s="98"/>
       <c r="N52" s="108"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="106"/>
       <c r="C53" s="143"/>
       <c r="D53" s="143"/>
@@ -6048,7 +5955,7 @@
       <c r="M53" s="98"/>
       <c r="N53" s="108"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="106"/>
       <c r="C54" s="143"/>
       <c r="D54" s="143"/>
@@ -6056,7 +5963,7 @@
         <v>1300</v>
       </c>
       <c r="F54" s="142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G54" s="142"/>
       <c r="H54" s="142"/>
@@ -6067,13 +5974,13 @@
       <c r="M54" s="98"/>
       <c r="N54" s="108"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="106"/>
       <c r="C55" s="143"/>
       <c r="D55" s="143"/>
       <c r="E55" s="142"/>
       <c r="F55" s="142" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G55" s="142"/>
       <c r="H55" s="142"/>
@@ -6084,7 +5991,7 @@
       <c r="M55" s="98"/>
       <c r="N55" s="108"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="106"/>
       <c r="C56" s="143"/>
       <c r="D56" s="143"/>
@@ -6099,7 +6006,7 @@
       <c r="M56" s="98"/>
       <c r="N56" s="108"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="106"/>
       <c r="C57" s="143"/>
       <c r="D57" s="143"/>
@@ -6114,7 +6021,7 @@
       <c r="M57" s="98"/>
       <c r="N57" s="108"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="106"/>
       <c r="C58" s="143"/>
       <c r="D58" s="143"/>
@@ -6123,10 +6030,10 @@
         <v>624</v>
       </c>
       <c r="F58" s="142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G58" s="142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H58" s="142"/>
       <c r="I58" s="98"/>
@@ -6136,7 +6043,7 @@
       <c r="M58" s="98"/>
       <c r="N58" s="108"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="106"/>
       <c r="C59" s="143"/>
       <c r="D59" s="143"/>
@@ -6145,10 +6052,10 @@
         <v>676</v>
       </c>
       <c r="F59" s="142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G59" s="142" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H59" s="142"/>
       <c r="I59" s="98"/>
@@ -6158,7 +6065,7 @@
       <c r="M59" s="98"/>
       <c r="N59" s="108"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="106"/>
       <c r="C60" s="143"/>
       <c r="D60" s="143"/>
@@ -6173,7 +6080,7 @@
       <c r="M60" s="98"/>
       <c r="N60" s="108"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="106"/>
       <c r="C61" s="143"/>
       <c r="D61" s="143"/>
@@ -6188,7 +6095,7 @@
       <c r="M61" s="98"/>
       <c r="N61" s="108"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="106"/>
       <c r="C62" s="143"/>
       <c r="D62" s="143"/>
@@ -6203,7 +6110,7 @@
       <c r="M62" s="98"/>
       <c r="N62" s="108"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="106"/>
       <c r="C63" s="143"/>
       <c r="D63" s="143"/>
@@ -6218,7 +6125,7 @@
       <c r="M63" s="98"/>
       <c r="N63" s="108"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="106"/>
       <c r="C64" s="143"/>
       <c r="D64" s="143"/>
@@ -6233,7 +6140,7 @@
       <c r="M64" s="98"/>
       <c r="N64" s="108"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="106"/>
       <c r="C65" s="143"/>
       <c r="D65" s="143"/>
@@ -6248,7 +6155,7 @@
       <c r="M65" s="98"/>
       <c r="N65" s="108"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="106"/>
       <c r="C66" s="143"/>
       <c r="D66" s="143"/>
@@ -6263,7 +6170,7 @@
       <c r="M66" s="98"/>
       <c r="N66" s="108"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="106"/>
       <c r="C67" s="143"/>
       <c r="D67" s="143"/>
@@ -6278,7 +6185,7 @@
       <c r="M67" s="98"/>
       <c r="N67" s="108"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="106"/>
       <c r="C68" s="143"/>
       <c r="D68" s="143"/>
@@ -6293,7 +6200,7 @@
       <c r="M68" s="98"/>
       <c r="N68" s="108"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="106"/>
       <c r="D69" s="143"/>
       <c r="E69" s="143"/>
@@ -6306,7 +6213,7 @@
       <c r="M69" s="98"/>
       <c r="N69" s="108"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="106"/>
       <c r="C70" s="143"/>
       <c r="D70" s="143"/>
@@ -6320,7 +6227,7 @@
       <c r="M70" s="98"/>
       <c r="N70" s="108"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="106"/>
       <c r="C71" s="143"/>
       <c r="D71" s="143"/>
@@ -6334,7 +6241,7 @@
       <c r="M71" s="98"/>
       <c r="N71" s="108"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="106"/>
       <c r="C72" s="143"/>
       <c r="D72" s="143"/>
@@ -6348,10 +6255,10 @@
       <c r="M72" s="98"/>
       <c r="N72" s="108"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="106"/>
       <c r="C73" s="143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" s="143"/>
       <c r="E73" s="143"/>
@@ -6364,7 +6271,7 @@
       <c r="M73" s="98"/>
       <c r="N73" s="108"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="106"/>
       <c r="C74" s="143"/>
       <c r="D74" s="143"/>
@@ -6375,7 +6282,7 @@
       <c r="M74" s="98"/>
       <c r="N74" s="108"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="106"/>
       <c r="C75" s="143"/>
       <c r="D75" s="143"/>
@@ -6383,7 +6290,7 @@
         <v>25</v>
       </c>
       <c r="F75" s="143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G75" s="143" t="s">
         <v>61</v>
@@ -6395,12 +6302,12 @@
       <c r="M75" s="98"/>
       <c r="N75" s="108"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="106"/>
       <c r="E76" s="143"/>
       <c r="F76" s="143"/>
       <c r="G76" s="143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I76" s="98"/>
       <c r="J76" s="98"/>
@@ -6409,7 +6316,7 @@
       <c r="M76" s="98"/>
       <c r="N76" s="108"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="106"/>
       <c r="I77" s="98"/>
       <c r="J77" s="98"/>
@@ -6418,7 +6325,7 @@
       <c r="M77" s="98"/>
       <c r="N77" s="108"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="106"/>
       <c r="I78" s="98"/>
       <c r="J78" s="98"/>
@@ -6427,7 +6334,7 @@
       <c r="M78" s="98"/>
       <c r="N78" s="108"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="106"/>
       <c r="I79" s="98"/>
       <c r="J79" s="98"/>
@@ -6436,7 +6343,7 @@
       <c r="M79" s="98"/>
       <c r="N79" s="108"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="106"/>
       <c r="I80" s="98"/>
       <c r="J80" s="98"/>
@@ -6445,7 +6352,7 @@
       <c r="M80" s="98"/>
       <c r="N80" s="108"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="106"/>
       <c r="I81" s="98"/>
       <c r="J81" s="98"/>
@@ -6454,7 +6361,7 @@
       <c r="M81" s="98"/>
       <c r="N81" s="108"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="106"/>
       <c r="I82" s="98"/>
       <c r="J82" s="98"/>
@@ -6463,7 +6370,7 @@
       <c r="M82" s="98"/>
       <c r="N82" s="108"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="106"/>
       <c r="I83" s="98"/>
       <c r="J83" s="98"/>
@@ -6472,7 +6379,7 @@
       <c r="M83" s="98"/>
       <c r="N83" s="108"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="106"/>
       <c r="I84" s="98"/>
       <c r="J84" s="98"/>
@@ -6481,7 +6388,7 @@
       <c r="M84" s="98"/>
       <c r="N84" s="108"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="106"/>
       <c r="C85" s="187" t="s">
         <v>27</v>
@@ -6498,7 +6405,7 @@
       <c r="M85" s="98"/>
       <c r="N85" s="108"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="106"/>
       <c r="C86" s="151"/>
       <c r="D86" s="151"/>
@@ -6513,7 +6420,7 @@
       <c r="M86" s="98"/>
       <c r="N86" s="108"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="106"/>
       <c r="C87" s="151"/>
       <c r="D87" s="151"/>
@@ -6528,7 +6435,7 @@
       <c r="M87" s="98"/>
       <c r="N87" s="108"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="106"/>
       <c r="C88" s="151"/>
       <c r="D88" s="151"/>
@@ -6543,7 +6450,7 @@
       <c r="M88" s="98"/>
       <c r="N88" s="108"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="106"/>
       <c r="C89" s="151"/>
       <c r="D89" s="151"/>
@@ -6558,7 +6465,7 @@
       <c r="M89" s="98"/>
       <c r="N89" s="108"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="106"/>
       <c r="I90" s="98"/>
       <c r="J90" s="98"/>
@@ -6567,7 +6474,7 @@
       <c r="M90" s="98"/>
       <c r="N90" s="108"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="106"/>
       <c r="I91" s="98"/>
       <c r="J91" s="98"/>
@@ -6576,7 +6483,7 @@
       <c r="M91" s="98"/>
       <c r="N91" s="108"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="106"/>
       <c r="C92" s="151"/>
       <c r="D92" s="151"/>
@@ -6591,7 +6498,7 @@
       <c r="M92" s="98"/>
       <c r="N92" s="108"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="106"/>
       <c r="C93" s="151"/>
       <c r="D93" s="151"/>
@@ -6599,7 +6506,7 @@
         <v>1010</v>
       </c>
       <c r="F93" s="151" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G93" s="151" t="s">
         <v>54</v>
@@ -6612,7 +6519,7 @@
       <c r="M93" s="98"/>
       <c r="N93" s="108"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="106"/>
       <c r="C94" s="151"/>
       <c r="D94" s="151"/>
@@ -6627,7 +6534,7 @@
       <c r="M94" s="98"/>
       <c r="N94" s="108"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="106"/>
       <c r="C95" s="151"/>
       <c r="D95" s="151"/>
@@ -6642,7 +6549,7 @@
       <c r="M95" s="98"/>
       <c r="N95" s="108"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="106"/>
       <c r="C96" s="151"/>
       <c r="D96" s="151"/>
@@ -6657,7 +6564,7 @@
       <c r="M96" s="98"/>
       <c r="N96" s="108"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="106"/>
       <c r="C97" s="151"/>
       <c r="D97" s="151"/>
@@ -6672,7 +6579,7 @@
       <c r="M97" s="98"/>
       <c r="N97" s="108"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="106"/>
       <c r="C98" s="151"/>
       <c r="D98" s="151"/>
@@ -6687,7 +6594,7 @@
       <c r="M98" s="98"/>
       <c r="N98" s="108"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="106"/>
       <c r="C99" s="151"/>
       <c r="D99" s="151"/>
@@ -6695,10 +6602,10 @@
         <v>17</v>
       </c>
       <c r="F99" s="151" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G99" s="151" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H99" s="151"/>
       <c r="I99" s="98"/>
@@ -6708,7 +6615,7 @@
       <c r="M99" s="98"/>
       <c r="N99" s="108"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="106"/>
       <c r="C100" s="151"/>
       <c r="D100" s="151"/>
@@ -6723,13 +6630,13 @@
       <c r="M100" s="98"/>
       <c r="N100" s="108"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="106"/>
       <c r="C101" s="151"/>
       <c r="D101" s="151"/>
       <c r="E101" s="151"/>
       <c r="F101" s="151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G101" s="151"/>
       <c r="H101" s="151"/>
@@ -6740,7 +6647,7 @@
       <c r="M101" s="98"/>
       <c r="N101" s="108"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="106"/>
       <c r="C102" s="151"/>
       <c r="D102" s="151"/>
@@ -6755,7 +6662,7 @@
       <c r="M102" s="98"/>
       <c r="N102" s="108"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="106"/>
       <c r="C103" s="151"/>
       <c r="D103" s="151"/>
@@ -6763,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G103" s="151" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H103" s="151"/>
       <c r="I103" s="98"/>
@@ -6776,7 +6683,7 @@
       <c r="M103" s="98"/>
       <c r="N103" s="108"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="106"/>
       <c r="C104" s="151"/>
       <c r="D104" s="151"/>
@@ -6791,7 +6698,7 @@
       <c r="M104" s="98"/>
       <c r="N104" s="108"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="106"/>
       <c r="C105" s="151"/>
       <c r="D105" s="151"/>
@@ -6806,7 +6713,7 @@
       <c r="M105" s="98"/>
       <c r="N105" s="108"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="106"/>
       <c r="C106" s="151"/>
       <c r="D106" s="151"/>
@@ -6821,7 +6728,7 @@
       <c r="M106" s="98"/>
       <c r="N106" s="108"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="106"/>
       <c r="C107" s="151"/>
       <c r="D107" s="151"/>
@@ -6836,7 +6743,7 @@
       <c r="M107" s="98"/>
       <c r="N107" s="108"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="106"/>
       <c r="C108" s="151"/>
       <c r="D108" s="151"/>
@@ -6851,7 +6758,7 @@
       <c r="M108" s="98"/>
       <c r="N108" s="108"/>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="106"/>
       <c r="C109" s="151"/>
       <c r="D109" s="151"/>
@@ -6866,7 +6773,7 @@
       <c r="M109" s="98"/>
       <c r="N109" s="108"/>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="106"/>
       <c r="C110" s="151"/>
       <c r="D110" s="151"/>
@@ -6881,7 +6788,7 @@
       <c r="M110" s="98"/>
       <c r="N110" s="108"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="106"/>
       <c r="C111" s="151"/>
       <c r="D111" s="151"/>
@@ -6896,10 +6803,10 @@
       <c r="M111" s="98"/>
       <c r="N111" s="108"/>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="106"/>
       <c r="C112" s="187" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D112" s="187"/>
       <c r="E112" s="187"/>
@@ -6913,7 +6820,7 @@
       <c r="M112" s="98"/>
       <c r="N112" s="108"/>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="106"/>
       <c r="C113" s="151"/>
       <c r="D113" s="151"/>
@@ -6928,7 +6835,7 @@
       <c r="M113" s="98"/>
       <c r="N113" s="108"/>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="106"/>
       <c r="C114" s="151"/>
       <c r="D114" s="151"/>
@@ -6943,7 +6850,7 @@
       <c r="M114" s="98"/>
       <c r="N114" s="108"/>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="106"/>
       <c r="C115" s="151"/>
       <c r="D115" s="151"/>
@@ -6951,10 +6858,10 @@
         <v>1300</v>
       </c>
       <c r="F115" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G115" s="151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H115" s="151"/>
       <c r="I115" s="98"/>
@@ -6964,7 +6871,7 @@
       <c r="M115" s="98"/>
       <c r="N115" s="108"/>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="106"/>
       <c r="C116" s="151"/>
       <c r="D116" s="151"/>
@@ -6972,7 +6879,7 @@
         <v>1010</v>
       </c>
       <c r="F116" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G116" s="151" t="s">
         <v>54</v>
@@ -6985,7 +6892,7 @@
       <c r="M116" s="98"/>
       <c r="N116" s="108"/>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="106"/>
       <c r="C117" s="151"/>
       <c r="D117" s="151"/>
@@ -6993,7 +6900,7 @@
         <v>290</v>
       </c>
       <c r="F117" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G117" s="151" t="s">
         <v>15</v>
@@ -7006,7 +6913,7 @@
       <c r="M117" s="98"/>
       <c r="N117" s="108"/>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="106"/>
       <c r="C118" s="151"/>
       <c r="D118" s="151"/>
@@ -7021,7 +6928,7 @@
       <c r="M118" s="98"/>
       <c r="N118" s="108"/>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="106"/>
       <c r="C119" s="151"/>
       <c r="D119" s="151"/>
@@ -7029,10 +6936,10 @@
         <v>624</v>
       </c>
       <c r="F119" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G119" s="151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H119" s="151"/>
       <c r="I119" s="98"/>
@@ -7042,7 +6949,7 @@
       <c r="M119" s="98"/>
       <c r="N119" s="108"/>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="106"/>
       <c r="C120" s="151"/>
       <c r="D120" s="151"/>
@@ -7050,10 +6957,10 @@
         <v>386</v>
       </c>
       <c r="F120" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G120" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H120" s="151"/>
       <c r="I120" s="98"/>
@@ -7063,7 +6970,7 @@
       <c r="M120" s="98"/>
       <c r="N120" s="108"/>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="106"/>
       <c r="C121" s="98"/>
       <c r="D121" s="98"/>
@@ -7078,7 +6985,7 @@
       <c r="M121" s="98"/>
       <c r="N121" s="108"/>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="106"/>
       <c r="C122" s="98"/>
       <c r="D122" s="98"/>
@@ -7093,7 +7000,7 @@
       <c r="M122" s="98"/>
       <c r="N122" s="108"/>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="106"/>
       <c r="C123" s="98"/>
       <c r="D123" s="98"/>
@@ -7108,7 +7015,7 @@
       <c r="M123" s="98"/>
       <c r="N123" s="108"/>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="106"/>
       <c r="C124" s="98"/>
       <c r="D124" s="98"/>
@@ -7123,7 +7030,7 @@
       <c r="M124" s="98"/>
       <c r="N124" s="108"/>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="106"/>
       <c r="C125" s="98"/>
       <c r="D125" s="98"/>
@@ -7138,7 +7045,7 @@
       <c r="M125" s="98"/>
       <c r="N125" s="108"/>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="106"/>
       <c r="C126" s="98"/>
       <c r="D126" s="98"/>
@@ -7153,7 +7060,7 @@
       <c r="M126" s="98"/>
       <c r="N126" s="108"/>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="106"/>
       <c r="C127" s="98"/>
       <c r="D127" s="98"/>
@@ -7168,7 +7075,7 @@
       <c r="M127" s="98"/>
       <c r="N127" s="108"/>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="106"/>
       <c r="C128" s="98"/>
       <c r="D128" s="98"/>
@@ -7183,7 +7090,7 @@
       <c r="M128" s="98"/>
       <c r="N128" s="108"/>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="106"/>
       <c r="C129" s="98"/>
       <c r="D129" s="98"/>
@@ -7198,7 +7105,7 @@
       <c r="M129" s="98"/>
       <c r="N129" s="108"/>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="106"/>
       <c r="C130" s="98"/>
       <c r="D130" s="98"/>
@@ -7213,7 +7120,7 @@
       <c r="M130" s="98"/>
       <c r="N130" s="108"/>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="106"/>
       <c r="C131" s="98"/>
       <c r="D131" s="98"/>
@@ -7228,7 +7135,7 @@
       <c r="M131" s="98"/>
       <c r="N131" s="108"/>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="106"/>
       <c r="C132" s="98"/>
       <c r="D132" s="98"/>
@@ -7243,7 +7150,7 @@
       <c r="M132" s="98"/>
       <c r="N132" s="108"/>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="106"/>
       <c r="C133" s="98"/>
       <c r="D133" s="98"/>
@@ -7258,7 +7165,7 @@
       <c r="M133" s="98"/>
       <c r="N133" s="108"/>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="106"/>
       <c r="C134" s="98"/>
       <c r="D134" s="98"/>
@@ -7273,7 +7180,7 @@
       <c r="M134" s="98"/>
       <c r="N134" s="108"/>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="106"/>
       <c r="C135" s="98"/>
       <c r="D135" s="98"/>
@@ -7288,7 +7195,7 @@
       <c r="M135" s="98"/>
       <c r="N135" s="108"/>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="106"/>
       <c r="C136" s="98"/>
       <c r="D136" s="84"/>
@@ -7303,7 +7210,7 @@
       <c r="M136" s="98"/>
       <c r="N136" s="108"/>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="106"/>
       <c r="C137" s="98"/>
       <c r="D137" s="98"/>
@@ -7318,7 +7225,7 @@
       <c r="M137" s="98"/>
       <c r="N137" s="108"/>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="106"/>
       <c r="C138" s="98"/>
       <c r="D138" s="98"/>
@@ -7333,7 +7240,7 @@
       <c r="M138" s="98"/>
       <c r="N138" s="108"/>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="106"/>
       <c r="C139" s="98"/>
       <c r="D139" s="98"/>
@@ -7348,7 +7255,7 @@
       <c r="M139" s="98"/>
       <c r="N139" s="108"/>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="106"/>
       <c r="C140" s="98"/>
       <c r="D140" s="98"/>
@@ -7363,7 +7270,7 @@
       <c r="M140" s="98"/>
       <c r="N140" s="108"/>
     </row>
-    <row r="141" spans="2:14">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="106"/>
       <c r="C141" s="98"/>
       <c r="D141" s="98"/>
@@ -7378,7 +7285,7 @@
       <c r="M141" s="98"/>
       <c r="N141" s="108"/>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="106"/>
       <c r="C142" s="98"/>
       <c r="D142" s="98"/>
@@ -7393,7 +7300,7 @@
       <c r="M142" s="98"/>
       <c r="N142" s="108"/>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="106"/>
       <c r="C143" s="98"/>
       <c r="D143" s="98"/>
@@ -7408,7 +7315,7 @@
       <c r="M143" s="98"/>
       <c r="N143" s="108"/>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="106"/>
       <c r="C144" s="98"/>
       <c r="D144" s="98"/>
@@ -7423,7 +7330,7 @@
       <c r="M144" s="98"/>
       <c r="N144" s="108"/>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="106"/>
       <c r="C145" s="98"/>
       <c r="D145" s="98"/>
@@ -7438,7 +7345,7 @@
       <c r="M145" s="98"/>
       <c r="N145" s="108"/>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="106"/>
       <c r="C146" s="98"/>
       <c r="D146" s="98"/>
@@ -7453,7 +7360,7 @@
       <c r="M146" s="98"/>
       <c r="N146" s="108"/>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="106"/>
       <c r="C147" s="98"/>
       <c r="D147" s="98"/>
@@ -7468,7 +7375,7 @@
       <c r="M147" s="98"/>
       <c r="N147" s="108"/>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="106"/>
       <c r="C148" s="98"/>
       <c r="D148" s="98"/>
@@ -7483,7 +7390,7 @@
       <c r="M148" s="98"/>
       <c r="N148" s="108"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="106"/>
       <c r="C149" s="98"/>
       <c r="D149" s="98"/>
@@ -7498,7 +7405,7 @@
       <c r="M149" s="98"/>
       <c r="N149" s="108"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="106"/>
       <c r="C150" s="98"/>
       <c r="D150" s="98"/>
@@ -7513,7 +7420,7 @@
       <c r="M150" s="98"/>
       <c r="N150" s="108"/>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="106"/>
       <c r="C151" s="98"/>
       <c r="D151" s="98"/>
@@ -7528,7 +7435,7 @@
       <c r="M151" s="98"/>
       <c r="N151" s="108"/>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="106"/>
       <c r="C152" s="98"/>
       <c r="D152" s="98"/>
@@ -7543,7 +7450,7 @@
       <c r="M152" s="98"/>
       <c r="N152" s="108"/>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="106"/>
       <c r="C153" s="98"/>
       <c r="D153" s="98"/>
@@ -7558,7 +7465,7 @@
       <c r="M153" s="98"/>
       <c r="N153" s="108"/>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="106"/>
       <c r="C154" s="98"/>
       <c r="D154" s="98"/>
@@ -7573,7 +7480,7 @@
       <c r="M154" s="98"/>
       <c r="N154" s="108"/>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="106"/>
       <c r="C155" s="98"/>
       <c r="D155" s="98"/>
@@ -7588,7 +7495,7 @@
       <c r="M155" s="98"/>
       <c r="N155" s="108"/>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="106"/>
       <c r="C156" s="98"/>
       <c r="D156" s="98"/>
@@ -7603,7 +7510,7 @@
       <c r="M156" s="98"/>
       <c r="N156" s="108"/>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="106"/>
       <c r="C157" s="98"/>
       <c r="D157" s="98"/>
@@ -7618,7 +7525,7 @@
       <c r="M157" s="98"/>
       <c r="N157" s="108"/>
     </row>
-    <row r="158" spans="2:14">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="106"/>
       <c r="C158" s="98"/>
       <c r="D158" s="98"/>
@@ -7633,7 +7540,7 @@
       <c r="M158" s="98"/>
       <c r="N158" s="108"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="106"/>
       <c r="C159" s="98"/>
       <c r="D159" s="98"/>
@@ -7648,7 +7555,7 @@
       <c r="M159" s="98"/>
       <c r="N159" s="108"/>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="106"/>
       <c r="C160" s="98"/>
       <c r="D160" s="98"/>
@@ -7663,7 +7570,7 @@
       <c r="M160" s="98"/>
       <c r="N160" s="108"/>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="106"/>
       <c r="C161" s="98"/>
       <c r="D161" s="98"/>
@@ -7678,7 +7585,7 @@
       <c r="M161" s="98"/>
       <c r="N161" s="108"/>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="106"/>
       <c r="C162" s="98"/>
       <c r="D162" s="98"/>
@@ -7693,7 +7600,7 @@
       <c r="M162" s="98"/>
       <c r="N162" s="108"/>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="106"/>
       <c r="C163" s="98"/>
       <c r="D163" s="98"/>
@@ -7708,7 +7615,7 @@
       <c r="M163" s="98"/>
       <c r="N163" s="108"/>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="106"/>
       <c r="C164" s="98"/>
       <c r="D164" s="98"/>
@@ -7723,7 +7630,7 @@
       <c r="M164" s="98"/>
       <c r="N164" s="108"/>
     </row>
-    <row r="165" spans="2:14">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="106"/>
       <c r="C165" s="98"/>
       <c r="D165" s="98"/>
@@ -7738,7 +7645,7 @@
       <c r="M165" s="98"/>
       <c r="N165" s="108"/>
     </row>
-    <row r="166" spans="2:14">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="106"/>
       <c r="C166" s="98"/>
       <c r="D166" s="98"/>
@@ -7753,7 +7660,7 @@
       <c r="M166" s="98"/>
       <c r="N166" s="108"/>
     </row>
-    <row r="167" spans="2:14">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="106"/>
       <c r="C167" s="98"/>
       <c r="D167" s="98"/>
@@ -7768,7 +7675,7 @@
       <c r="M167" s="98"/>
       <c r="N167" s="108"/>
     </row>
-    <row r="168" spans="2:14">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="106"/>
       <c r="C168" s="98"/>
       <c r="D168" s="98"/>
@@ -7783,7 +7690,7 @@
       <c r="M168" s="98"/>
       <c r="N168" s="108"/>
     </row>
-    <row r="169" spans="2:14">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="106"/>
       <c r="C169" s="98"/>
       <c r="D169" s="98"/>
@@ -7798,7 +7705,7 @@
       <c r="M169" s="98"/>
       <c r="N169" s="108"/>
     </row>
-    <row r="170" spans="2:14">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="106"/>
       <c r="C170" s="98"/>
       <c r="D170" s="98"/>
@@ -7813,7 +7720,7 @@
       <c r="M170" s="98"/>
       <c r="N170" s="108"/>
     </row>
-    <row r="171" spans="2:14">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="106"/>
       <c r="C171" s="98"/>
       <c r="D171" s="98"/>
@@ -7828,7 +7735,7 @@
       <c r="M171" s="98"/>
       <c r="N171" s="108"/>
     </row>
-    <row r="172" spans="2:14">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="106"/>
       <c r="C172" s="98"/>
       <c r="D172" s="98"/>
@@ -7843,7 +7750,7 @@
       <c r="M172" s="98"/>
       <c r="N172" s="108"/>
     </row>
-    <row r="173" spans="2:14">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="106"/>
       <c r="C173" s="98"/>
       <c r="D173" s="98"/>
@@ -7858,7 +7765,7 @@
       <c r="M173" s="98"/>
       <c r="N173" s="108"/>
     </row>
-    <row r="174" spans="2:14">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="106"/>
       <c r="C174" s="98"/>
       <c r="D174" s="98"/>
@@ -7873,7 +7780,7 @@
       <c r="M174" s="98"/>
       <c r="N174" s="108"/>
     </row>
-    <row r="175" spans="2:14">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="106"/>
       <c r="C175" s="98"/>
       <c r="D175" s="98"/>
@@ -7888,7 +7795,7 @@
       <c r="M175" s="98"/>
       <c r="N175" s="108"/>
     </row>
-    <row r="176" spans="2:14">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="106"/>
       <c r="C176" s="98"/>
       <c r="D176" s="98"/>
@@ -7903,7 +7810,7 @@
       <c r="M176" s="98"/>
       <c r="N176" s="108"/>
     </row>
-    <row r="177" spans="2:14">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="106"/>
       <c r="C177" s="98"/>
       <c r="D177" s="98"/>
@@ -7918,7 +7825,7 @@
       <c r="M177" s="98"/>
       <c r="N177" s="108"/>
     </row>
-    <row r="178" spans="2:14">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="106"/>
       <c r="C178" s="98"/>
       <c r="D178" s="98"/>
@@ -7933,7 +7840,7 @@
       <c r="M178" s="98"/>
       <c r="N178" s="108"/>
     </row>
-    <row r="179" spans="2:14">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="106"/>
       <c r="C179" s="98"/>
       <c r="D179" s="98"/>
@@ -7948,7 +7855,7 @@
       <c r="M179" s="98"/>
       <c r="N179" s="108"/>
     </row>
-    <row r="180" spans="2:14">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B180" s="106"/>
       <c r="C180" s="98"/>
       <c r="D180" s="98"/>
@@ -7963,7 +7870,7 @@
       <c r="M180" s="98"/>
       <c r="N180" s="108"/>
     </row>
-    <row r="181" spans="2:14">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B181" s="106"/>
       <c r="C181" s="98"/>
       <c r="D181" s="98"/>
@@ -7978,7 +7885,7 @@
       <c r="M181" s="98"/>
       <c r="N181" s="108"/>
     </row>
-    <row r="182" spans="2:14">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B182" s="106"/>
       <c r="C182" s="98"/>
       <c r="D182" s="98"/>
@@ -7993,7 +7900,7 @@
       <c r="M182" s="98"/>
       <c r="N182" s="108"/>
     </row>
-    <row r="183" spans="2:14">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B183" s="106"/>
       <c r="C183" s="98"/>
       <c r="D183" s="98"/>
@@ -8008,7 +7915,7 @@
       <c r="M183" s="98"/>
       <c r="N183" s="108"/>
     </row>
-    <row r="184" spans="2:14">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B184" s="106"/>
       <c r="C184" s="98"/>
       <c r="D184" s="98"/>
@@ -8023,7 +7930,7 @@
       <c r="M184" s="98"/>
       <c r="N184" s="108"/>
     </row>
-    <row r="185" spans="2:14">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B185" s="106"/>
       <c r="C185" s="98"/>
       <c r="D185" s="98"/>
@@ -8038,7 +7945,7 @@
       <c r="M185" s="98"/>
       <c r="N185" s="108"/>
     </row>
-    <row r="186" spans="2:14">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B186" s="106"/>
       <c r="C186" s="98"/>
       <c r="D186" s="98"/>
@@ -8053,7 +7960,7 @@
       <c r="M186" s="98"/>
       <c r="N186" s="108"/>
     </row>
-    <row r="187" spans="2:14">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B187" s="106"/>
       <c r="C187" s="98"/>
       <c r="D187" s="98"/>
@@ -8068,7 +7975,7 @@
       <c r="M187" s="98"/>
       <c r="N187" s="108"/>
     </row>
-    <row r="188" spans="2:14">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B188" s="106"/>
       <c r="C188" s="98"/>
       <c r="D188" s="98"/>
@@ -8083,7 +7990,7 @@
       <c r="M188" s="98"/>
       <c r="N188" s="108"/>
     </row>
-    <row r="189" spans="2:14">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B189" s="106"/>
       <c r="C189" s="98"/>
       <c r="D189" s="98"/>
@@ -8098,7 +8005,7 @@
       <c r="M189" s="98"/>
       <c r="N189" s="108"/>
     </row>
-    <row r="190" spans="2:14">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B190" s="106"/>
       <c r="C190" s="98"/>
       <c r="D190" s="98"/>
@@ -8113,7 +8020,7 @@
       <c r="M190" s="98"/>
       <c r="N190" s="108"/>
     </row>
-    <row r="191" spans="2:14">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B191" s="106"/>
       <c r="C191" s="98"/>
       <c r="D191" s="98"/>
@@ -8128,7 +8035,7 @@
       <c r="M191" s="98"/>
       <c r="N191" s="108"/>
     </row>
-    <row r="192" spans="2:14">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B192" s="106"/>
       <c r="C192" s="98"/>
       <c r="D192" s="98"/>
@@ -8143,7 +8050,7 @@
       <c r="M192" s="98"/>
       <c r="N192" s="108"/>
     </row>
-    <row r="193" spans="2:14">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B193" s="106"/>
       <c r="C193" s="98"/>
       <c r="D193" s="98"/>
@@ -8158,7 +8065,7 @@
       <c r="M193" s="98"/>
       <c r="N193" s="108"/>
     </row>
-    <row r="194" spans="2:14">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B194" s="106"/>
       <c r="C194" s="98"/>
       <c r="D194" s="98"/>
@@ -8173,7 +8080,7 @@
       <c r="M194" s="98"/>
       <c r="N194" s="108"/>
     </row>
-    <row r="195" spans="2:14">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B195" s="106"/>
       <c r="C195" s="98"/>
       <c r="D195" s="98"/>
@@ -8188,7 +8095,7 @@
       <c r="M195" s="98"/>
       <c r="N195" s="108"/>
     </row>
-    <row r="196" spans="2:14">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B196" s="106"/>
       <c r="C196" s="98"/>
       <c r="D196" s="98"/>
@@ -8203,7 +8110,7 @@
       <c r="M196" s="98"/>
       <c r="N196" s="108"/>
     </row>
-    <row r="197" spans="2:14">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B197" s="106"/>
       <c r="C197" s="98"/>
       <c r="D197" s="98"/>
@@ -8218,7 +8125,7 @@
       <c r="M197" s="98"/>
       <c r="N197" s="108"/>
     </row>
-    <row r="198" spans="2:14">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B198" s="106"/>
       <c r="C198" s="98"/>
       <c r="D198" s="98"/>
@@ -8233,7 +8140,7 @@
       <c r="M198" s="98"/>
       <c r="N198" s="108"/>
     </row>
-    <row r="199" spans="2:14">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B199" s="106"/>
       <c r="C199" s="98"/>
       <c r="D199" s="98"/>
@@ -8248,7 +8155,7 @@
       <c r="M199" s="98"/>
       <c r="N199" s="108"/>
     </row>
-    <row r="200" spans="2:14">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B200" s="106"/>
       <c r="C200" s="98"/>
       <c r="D200" s="98"/>
@@ -8263,7 +8170,7 @@
       <c r="M200" s="98"/>
       <c r="N200" s="108"/>
     </row>
-    <row r="201" spans="2:14">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B201" s="106"/>
       <c r="C201" s="98"/>
       <c r="D201" s="98"/>
@@ -8278,7 +8185,7 @@
       <c r="M201" s="98"/>
       <c r="N201" s="108"/>
     </row>
-    <row r="202" spans="2:14">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B202" s="106"/>
       <c r="C202" s="98"/>
       <c r="D202" s="98"/>
@@ -8293,7 +8200,7 @@
       <c r="M202" s="98"/>
       <c r="N202" s="108"/>
     </row>
-    <row r="203" spans="2:14">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B203" s="106"/>
       <c r="C203" s="98"/>
       <c r="D203" s="98"/>
@@ -8308,7 +8215,7 @@
       <c r="M203" s="98"/>
       <c r="N203" s="108"/>
     </row>
-    <row r="204" spans="2:14">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B204" s="106"/>
       <c r="C204" s="98"/>
       <c r="D204" s="98"/>
@@ -8323,7 +8230,7 @@
       <c r="M204" s="98"/>
       <c r="N204" s="108"/>
     </row>
-    <row r="205" spans="2:14">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B205" s="106"/>
       <c r="C205" s="98"/>
       <c r="D205" s="98"/>
@@ -8338,7 +8245,7 @@
       <c r="M205" s="98"/>
       <c r="N205" s="108"/>
     </row>
-    <row r="206" spans="2:14">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B206" s="106"/>
       <c r="C206" s="98"/>
       <c r="D206" s="98"/>
@@ -8353,7 +8260,7 @@
       <c r="M206" s="98"/>
       <c r="N206" s="108"/>
     </row>
-    <row r="207" spans="2:14">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B207" s="106"/>
       <c r="C207" s="98"/>
       <c r="D207" s="98"/>
@@ -8368,7 +8275,7 @@
       <c r="M207" s="98"/>
       <c r="N207" s="108"/>
     </row>
-    <row r="208" spans="2:14">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B208" s="106"/>
       <c r="C208" s="98"/>
       <c r="D208" s="98"/>
@@ -8383,7 +8290,7 @@
       <c r="M208" s="98"/>
       <c r="N208" s="108"/>
     </row>
-    <row r="209" spans="2:14">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B209" s="106"/>
       <c r="C209" s="98"/>
       <c r="D209" s="98"/>
@@ -8398,7 +8305,7 @@
       <c r="M209" s="98"/>
       <c r="N209" s="108"/>
     </row>
-    <row r="210" spans="2:14">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B210" s="106"/>
       <c r="C210" s="98"/>
       <c r="D210" s="98"/>
@@ -8413,7 +8320,7 @@
       <c r="M210" s="98"/>
       <c r="N210" s="108"/>
     </row>
-    <row r="211" spans="2:14">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B211" s="106"/>
       <c r="C211" s="98"/>
       <c r="D211" s="98"/>
@@ -8428,7 +8335,7 @@
       <c r="M211" s="98"/>
       <c r="N211" s="108"/>
     </row>
-    <row r="212" spans="2:14">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B212" s="106"/>
       <c r="C212" s="98"/>
       <c r="D212" s="98"/>
@@ -8443,7 +8350,7 @@
       <c r="M212" s="98"/>
       <c r="N212" s="108"/>
     </row>
-    <row r="213" spans="2:14">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B213" s="106"/>
       <c r="C213" s="98"/>
       <c r="D213" s="98"/>
@@ -8458,7 +8365,7 @@
       <c r="M213" s="98"/>
       <c r="N213" s="108"/>
     </row>
-    <row r="214" spans="2:14">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B214" s="106"/>
       <c r="C214" s="98"/>
       <c r="D214" s="98"/>
@@ -8473,7 +8380,7 @@
       <c r="M214" s="98"/>
       <c r="N214" s="108"/>
     </row>
-    <row r="215" spans="2:14">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B215" s="106"/>
       <c r="C215" s="98"/>
       <c r="D215" s="98"/>
@@ -8488,7 +8395,7 @@
       <c r="M215" s="98"/>
       <c r="N215" s="108"/>
     </row>
-    <row r="216" spans="2:14">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B216" s="106"/>
       <c r="C216" s="98"/>
       <c r="D216" s="98"/>
@@ -8503,7 +8410,7 @@
       <c r="M216" s="98"/>
       <c r="N216" s="108"/>
     </row>
-    <row r="217" spans="2:14">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B217" s="106"/>
       <c r="C217" s="98"/>
       <c r="D217" s="98"/>
@@ -8518,7 +8425,7 @@
       <c r="M217" s="98"/>
       <c r="N217" s="108"/>
     </row>
-    <row r="218" spans="2:14">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B218" s="106"/>
       <c r="C218" s="98"/>
       <c r="D218" s="98"/>
@@ -8533,7 +8440,7 @@
       <c r="M218" s="98"/>
       <c r="N218" s="108"/>
     </row>
-    <row r="219" spans="2:14">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B219" s="106"/>
       <c r="C219" s="98"/>
       <c r="D219" s="98"/>
@@ -8548,7 +8455,7 @@
       <c r="M219" s="98"/>
       <c r="N219" s="108"/>
     </row>
-    <row r="220" spans="2:14">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B220" s="106"/>
       <c r="C220" s="98"/>
       <c r="D220" s="98"/>
@@ -8563,7 +8470,7 @@
       <c r="M220" s="98"/>
       <c r="N220" s="108"/>
     </row>
-    <row r="221" spans="2:14">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B221" s="106"/>
       <c r="C221" s="98"/>
       <c r="D221" s="98"/>
@@ -8578,7 +8485,7 @@
       <c r="M221" s="98"/>
       <c r="N221" s="108"/>
     </row>
-    <row r="222" spans="2:14">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B222" s="106"/>
       <c r="C222" s="98"/>
       <c r="D222" s="98"/>
@@ -8593,7 +8500,7 @@
       <c r="M222" s="98"/>
       <c r="N222" s="108"/>
     </row>
-    <row r="223" spans="2:14">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B223" s="106"/>
       <c r="C223" s="98"/>
       <c r="D223" s="98"/>
@@ -8608,7 +8515,7 @@
       <c r="M223" s="98"/>
       <c r="N223" s="108"/>
     </row>
-    <row r="224" spans="2:14">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B224" s="106"/>
       <c r="C224" s="98"/>
       <c r="D224" s="98"/>
@@ -8623,7 +8530,7 @@
       <c r="M224" s="98"/>
       <c r="N224" s="108"/>
     </row>
-    <row r="225" spans="2:14">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B225" s="106"/>
       <c r="C225" s="98"/>
       <c r="D225" s="98"/>
@@ -8638,7 +8545,7 @@
       <c r="M225" s="98"/>
       <c r="N225" s="108"/>
     </row>
-    <row r="226" spans="2:14">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B226" s="106"/>
       <c r="C226" s="133"/>
       <c r="D226" s="133"/>
@@ -8653,7 +8560,7 @@
       <c r="M226" s="98"/>
       <c r="N226" s="108"/>
     </row>
-    <row r="227" spans="2:14">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B227" s="106"/>
       <c r="C227" s="133"/>
       <c r="D227" s="133"/>
@@ -8668,7 +8575,7 @@
       <c r="M227" s="98"/>
       <c r="N227" s="108"/>
     </row>
-    <row r="228" spans="2:14">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B228" s="106"/>
       <c r="C228" s="133"/>
       <c r="D228" s="133"/>
@@ -8683,7 +8590,7 @@
       <c r="M228" s="98"/>
       <c r="N228" s="108"/>
     </row>
-    <row r="229" spans="2:14">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B229" s="106"/>
       <c r="C229" s="133"/>
       <c r="D229" s="133"/>
@@ -8698,7 +8605,7 @@
       <c r="M229" s="98"/>
       <c r="N229" s="108"/>
     </row>
-    <row r="230" spans="2:14">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B230" s="106"/>
       <c r="C230" s="133"/>
       <c r="D230" s="133"/>
@@ -8713,7 +8620,7 @@
       <c r="M230" s="98"/>
       <c r="N230" s="108"/>
     </row>
-    <row r="231" spans="2:14">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B231" s="106"/>
       <c r="C231" s="133"/>
       <c r="D231" s="133"/>
@@ -8728,7 +8635,7 @@
       <c r="M231" s="98"/>
       <c r="N231" s="108"/>
     </row>
-    <row r="232" spans="2:14">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B232" s="106"/>
       <c r="C232" s="133"/>
       <c r="D232" s="133"/>
@@ -8743,7 +8650,7 @@
       <c r="M232" s="98"/>
       <c r="N232" s="108"/>
     </row>
-    <row r="233" spans="2:14">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B233" s="106"/>
       <c r="C233" s="133"/>
       <c r="D233" s="133"/>
@@ -8758,7 +8665,7 @@
       <c r="M233" s="98"/>
       <c r="N233" s="108"/>
     </row>
-    <row r="234" spans="2:14">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B234" s="106"/>
       <c r="C234" s="133"/>
       <c r="D234" s="133"/>
@@ -8773,7 +8680,7 @@
       <c r="M234" s="98"/>
       <c r="N234" s="108"/>
     </row>
-    <row r="235" spans="2:14">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B235" s="106"/>
       <c r="C235" s="133"/>
       <c r="D235" s="133"/>
@@ -8788,7 +8695,7 @@
       <c r="M235" s="98"/>
       <c r="N235" s="108"/>
     </row>
-    <row r="236" spans="2:14">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B236" s="106"/>
       <c r="C236" s="133"/>
       <c r="D236" s="133"/>
@@ -8803,7 +8710,7 @@
       <c r="M236" s="98"/>
       <c r="N236" s="108"/>
     </row>
-    <row r="237" spans="2:14">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B237" s="106"/>
       <c r="C237" s="133"/>
       <c r="D237" s="133"/>
@@ -8818,7 +8725,7 @@
       <c r="M237" s="98"/>
       <c r="N237" s="108"/>
     </row>
-    <row r="238" spans="2:14">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B238" s="106"/>
       <c r="C238" s="133"/>
       <c r="D238" s="133"/>
@@ -8833,7 +8740,7 @@
       <c r="M238" s="98"/>
       <c r="N238" s="108"/>
     </row>
-    <row r="239" spans="2:14">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B239" s="106"/>
       <c r="C239" s="98"/>
       <c r="D239" s="98"/>
@@ -8848,7 +8755,7 @@
       <c r="M239" s="98"/>
       <c r="N239" s="108"/>
     </row>
-    <row r="240" spans="2:14">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B240" s="106"/>
       <c r="C240" s="98"/>
       <c r="D240" s="98"/>
@@ -8863,7 +8770,7 @@
       <c r="M240" s="98"/>
       <c r="N240" s="108"/>
     </row>
-    <row r="241" spans="2:14">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B241" s="106"/>
       <c r="C241" s="98"/>
       <c r="D241" s="98"/>
@@ -8878,7 +8785,7 @@
       <c r="M241" s="98"/>
       <c r="N241" s="108"/>
     </row>
-    <row r="242" spans="2:14">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B242" s="106"/>
       <c r="C242" s="98"/>
       <c r="D242" s="98"/>
@@ -8893,7 +8800,7 @@
       <c r="M242" s="98"/>
       <c r="N242" s="108"/>
     </row>
-    <row r="243" spans="2:14">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B243" s="106"/>
       <c r="C243" s="98"/>
       <c r="D243" s="98"/>
@@ -8908,7 +8815,7 @@
       <c r="M243" s="98"/>
       <c r="N243" s="108"/>
     </row>
-    <row r="244" spans="2:14">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B244" s="106"/>
       <c r="C244" s="98"/>
       <c r="D244" s="98"/>
@@ -8923,7 +8830,7 @@
       <c r="M244" s="98"/>
       <c r="N244" s="108"/>
     </row>
-    <row r="245" spans="2:14">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B245" s="106"/>
       <c r="C245" s="98"/>
       <c r="D245" s="98"/>
@@ -8938,7 +8845,7 @@
       <c r="M245" s="98"/>
       <c r="N245" s="108"/>
     </row>
-    <row r="246" spans="2:14">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B246" s="106"/>
       <c r="C246" s="98"/>
       <c r="D246" s="98"/>
@@ -8953,7 +8860,7 @@
       <c r="M246" s="98"/>
       <c r="N246" s="108"/>
     </row>
-    <row r="247" spans="2:14">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B247" s="106"/>
       <c r="C247" s="98"/>
       <c r="D247" s="98"/>
@@ -8968,7 +8875,7 @@
       <c r="M247" s="98"/>
       <c r="N247" s="108"/>
     </row>
-    <row r="248" spans="2:14">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B248" s="106"/>
       <c r="C248" s="98"/>
       <c r="D248" s="98"/>
@@ -8983,7 +8890,7 @@
       <c r="M248" s="98"/>
       <c r="N248" s="108"/>
     </row>
-    <row r="249" spans="2:14">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B249" s="106"/>
       <c r="C249" s="98"/>
       <c r="D249" s="98"/>
@@ -8998,7 +8905,7 @@
       <c r="M249" s="98"/>
       <c r="N249" s="108"/>
     </row>
-    <row r="250" spans="2:14">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B250" s="106"/>
       <c r="C250" s="98"/>
       <c r="D250" s="98"/>
@@ -9013,7 +8920,7 @@
       <c r="M250" s="98"/>
       <c r="N250" s="108"/>
     </row>
-    <row r="251" spans="2:14">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B251" s="106"/>
       <c r="C251" s="98"/>
       <c r="D251" s="98"/>
@@ -9028,7 +8935,7 @@
       <c r="M251" s="98"/>
       <c r="N251" s="108"/>
     </row>
-    <row r="252" spans="2:14">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B252" s="106"/>
       <c r="C252" s="98"/>
       <c r="D252" s="98"/>
@@ -9043,7 +8950,7 @@
       <c r="M252" s="98"/>
       <c r="N252" s="108"/>
     </row>
-    <row r="253" spans="2:14">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B253" s="106"/>
       <c r="C253" s="98"/>
       <c r="D253" s="98"/>
@@ -9058,7 +8965,7 @@
       <c r="M253" s="98"/>
       <c r="N253" s="108"/>
     </row>
-    <row r="254" spans="2:14">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B254" s="106"/>
       <c r="C254" s="98"/>
       <c r="D254" s="98"/>
@@ -9073,7 +8980,7 @@
       <c r="M254" s="98"/>
       <c r="N254" s="108"/>
     </row>
-    <row r="255" spans="2:14">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B255" s="106"/>
       <c r="C255" s="98"/>
       <c r="D255" s="98"/>
@@ -9088,7 +8995,7 @@
       <c r="M255" s="98"/>
       <c r="N255" s="108"/>
     </row>
-    <row r="256" spans="2:14">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B256" s="106"/>
       <c r="C256" s="98"/>
       <c r="D256" s="98"/>
@@ -9103,7 +9010,7 @@
       <c r="M256" s="98"/>
       <c r="N256" s="108"/>
     </row>
-    <row r="257" spans="2:14">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B257" s="106"/>
       <c r="C257" s="98"/>
       <c r="D257" s="98"/>
@@ -9118,7 +9025,7 @@
       <c r="M257" s="98"/>
       <c r="N257" s="108"/>
     </row>
-    <row r="258" spans="2:14">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B258" s="106"/>
       <c r="C258" s="98"/>
       <c r="D258" s="98"/>
@@ -9133,7 +9040,7 @@
       <c r="M258" s="98"/>
       <c r="N258" s="108"/>
     </row>
-    <row r="259" spans="2:14">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B259" s="106"/>
       <c r="C259" s="98"/>
       <c r="D259" s="98"/>
@@ -9148,7 +9055,7 @@
       <c r="M259" s="98"/>
       <c r="N259" s="108"/>
     </row>
-    <row r="260" spans="2:14">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B260" s="106"/>
       <c r="C260" s="98"/>
       <c r="D260" s="98"/>
@@ -9163,7 +9070,7 @@
       <c r="M260" s="98"/>
       <c r="N260" s="108"/>
     </row>
-    <row r="261" spans="2:14">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B261" s="106"/>
       <c r="C261" s="98"/>
       <c r="D261" s="98"/>
@@ -9178,7 +9085,7 @@
       <c r="M261" s="98"/>
       <c r="N261" s="108"/>
     </row>
-    <row r="262" spans="2:14">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B262" s="106"/>
       <c r="C262" s="98"/>
       <c r="D262" s="98"/>
@@ -9193,7 +9100,7 @@
       <c r="M262" s="98"/>
       <c r="N262" s="108"/>
     </row>
-    <row r="263" spans="2:14">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B263" s="106"/>
       <c r="C263" s="98"/>
       <c r="D263" s="98"/>
@@ -9208,7 +9115,7 @@
       <c r="M263" s="98"/>
       <c r="N263" s="108"/>
     </row>
-    <row r="264" spans="2:14">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B264" s="106"/>
       <c r="C264" s="98"/>
       <c r="D264" s="98"/>
@@ -9223,7 +9130,7 @@
       <c r="M264" s="98"/>
       <c r="N264" s="108"/>
     </row>
-    <row r="265" spans="2:14">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B265" s="106"/>
       <c r="C265" s="98"/>
       <c r="D265" s="98"/>
@@ -9238,7 +9145,7 @@
       <c r="M265" s="98"/>
       <c r="N265" s="108"/>
     </row>
-    <row r="266" spans="2:14">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B266" s="106"/>
       <c r="C266" s="98"/>
       <c r="D266" s="98"/>
@@ -9253,7 +9160,7 @@
       <c r="M266" s="98"/>
       <c r="N266" s="108"/>
     </row>
-    <row r="267" spans="2:14">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B267" s="106"/>
       <c r="C267" s="98"/>
       <c r="D267" s="98"/>
@@ -9268,7 +9175,7 @@
       <c r="M267" s="98"/>
       <c r="N267" s="108"/>
     </row>
-    <row r="268" spans="2:14">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B268" s="106"/>
       <c r="C268" s="98"/>
       <c r="D268" s="98"/>
@@ -9283,7 +9190,7 @@
       <c r="M268" s="98"/>
       <c r="N268" s="108"/>
     </row>
-    <row r="269" spans="2:14">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B269" s="106"/>
       <c r="C269" s="98"/>
       <c r="D269" s="98"/>
@@ -9298,7 +9205,7 @@
       <c r="M269" s="98"/>
       <c r="N269" s="108"/>
     </row>
-    <row r="270" spans="2:14">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B270" s="106"/>
       <c r="C270" s="98"/>
       <c r="D270" s="98"/>
@@ -9313,7 +9220,7 @@
       <c r="M270" s="98"/>
       <c r="N270" s="108"/>
     </row>
-    <row r="271" spans="2:14">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B271" s="106"/>
       <c r="C271" s="98"/>
       <c r="D271" s="98"/>
@@ -9328,7 +9235,7 @@
       <c r="M271" s="98"/>
       <c r="N271" s="108"/>
     </row>
-    <row r="272" spans="2:14">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B272" s="106"/>
       <c r="C272" s="98"/>
       <c r="D272" s="98"/>
@@ -9343,7 +9250,7 @@
       <c r="M272" s="98"/>
       <c r="N272" s="108"/>
     </row>
-    <row r="273" spans="2:14">
+    <row r="273" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B273" s="106"/>
       <c r="C273" s="98"/>
       <c r="D273" s="98"/>
@@ -9358,7 +9265,7 @@
       <c r="M273" s="98"/>
       <c r="N273" s="108"/>
     </row>
-    <row r="274" spans="2:14">
+    <row r="274" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B274" s="106"/>
       <c r="C274" s="98"/>
       <c r="D274" s="98"/>
@@ -9373,7 +9280,7 @@
       <c r="M274" s="98"/>
       <c r="N274" s="108"/>
     </row>
-    <row r="275" spans="2:14">
+    <row r="275" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B275" s="106"/>
       <c r="C275" s="98"/>
       <c r="D275" s="98"/>
@@ -9388,7 +9295,7 @@
       <c r="M275" s="98"/>
       <c r="N275" s="108"/>
     </row>
-    <row r="276" spans="2:14">
+    <row r="276" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B276" s="106"/>
       <c r="C276" s="98"/>
       <c r="D276" s="98"/>
@@ -9403,7 +9310,7 @@
       <c r="M276" s="98"/>
       <c r="N276" s="108"/>
     </row>
-    <row r="277" spans="2:14">
+    <row r="277" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B277" s="106"/>
       <c r="C277" s="98"/>
       <c r="D277" s="98"/>
@@ -9418,7 +9325,7 @@
       <c r="M277" s="98"/>
       <c r="N277" s="108"/>
     </row>
-    <row r="278" spans="2:14">
+    <row r="278" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B278" s="106"/>
       <c r="C278" s="98"/>
       <c r="D278" s="98"/>
@@ -9433,7 +9340,7 @@
       <c r="M278" s="98"/>
       <c r="N278" s="108"/>
     </row>
-    <row r="279" spans="2:14">
+    <row r="279" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B279" s="106"/>
       <c r="C279" s="98"/>
       <c r="D279" s="98"/>
@@ -9448,7 +9355,7 @@
       <c r="M279" s="98"/>
       <c r="N279" s="108"/>
     </row>
-    <row r="280" spans="2:14">
+    <row r="280" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B280" s="106"/>
       <c r="C280" s="98"/>
       <c r="D280" s="98"/>
@@ -9463,7 +9370,7 @@
       <c r="M280" s="98"/>
       <c r="N280" s="108"/>
     </row>
-    <row r="281" spans="2:14">
+    <row r="281" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B281" s="106"/>
       <c r="C281" s="98"/>
       <c r="D281" s="98"/>
@@ -9478,7 +9385,7 @@
       <c r="M281" s="98"/>
       <c r="N281" s="108"/>
     </row>
-    <row r="282" spans="2:14">
+    <row r="282" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B282" s="106"/>
       <c r="C282" s="98"/>
       <c r="D282" s="98"/>
@@ -9493,7 +9400,7 @@
       <c r="M282" s="98"/>
       <c r="N282" s="108"/>
     </row>
-    <row r="283" spans="2:14">
+    <row r="283" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B283" s="106"/>
       <c r="C283" s="98"/>
       <c r="D283" s="98"/>
@@ -9508,7 +9415,7 @@
       <c r="M283" s="98"/>
       <c r="N283" s="108"/>
     </row>
-    <row r="284" spans="2:14">
+    <row r="284" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B284" s="106"/>
       <c r="C284" s="98"/>
       <c r="D284" s="98"/>
@@ -9523,7 +9430,7 @@
       <c r="M284" s="98"/>
       <c r="N284" s="108"/>
     </row>
-    <row r="285" spans="2:14">
+    <row r="285" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B285" s="106"/>
       <c r="C285" s="98"/>
       <c r="D285" s="98"/>
@@ -9538,7 +9445,7 @@
       <c r="M285" s="98"/>
       <c r="N285" s="108"/>
     </row>
-    <row r="286" spans="2:14">
+    <row r="286" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B286" s="106"/>
       <c r="C286" s="98"/>
       <c r="D286" s="98"/>
@@ -9553,7 +9460,7 @@
       <c r="M286" s="98"/>
       <c r="N286" s="108"/>
     </row>
-    <row r="287" spans="2:14">
+    <row r="287" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B287" s="106"/>
       <c r="C287" s="98"/>
       <c r="D287" s="98"/>
@@ -9568,7 +9475,7 @@
       <c r="M287" s="98"/>
       <c r="N287" s="108"/>
     </row>
-    <row r="288" spans="2:14">
+    <row r="288" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B288" s="106"/>
       <c r="C288" s="98"/>
       <c r="D288" s="98"/>
@@ -9583,7 +9490,7 @@
       <c r="M288" s="98"/>
       <c r="N288" s="108"/>
     </row>
-    <row r="289" spans="2:14">
+    <row r="289" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B289" s="106"/>
       <c r="C289" s="98"/>
       <c r="D289" s="98"/>
@@ -9598,7 +9505,7 @@
       <c r="M289" s="98"/>
       <c r="N289" s="108"/>
     </row>
-    <row r="290" spans="2:14">
+    <row r="290" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B290" s="106"/>
       <c r="C290" s="98"/>
       <c r="D290" s="98"/>
@@ -9613,7 +9520,7 @@
       <c r="M290" s="98"/>
       <c r="N290" s="108"/>
     </row>
-    <row r="291" spans="2:14">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B291" s="106"/>
       <c r="C291" s="98"/>
       <c r="D291" s="98"/>
@@ -9628,7 +9535,7 @@
       <c r="M291" s="98"/>
       <c r="N291" s="108"/>
     </row>
-    <row r="292" spans="2:14">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B292" s="106"/>
       <c r="C292" s="98"/>
       <c r="D292" s="98"/>
@@ -9643,7 +9550,7 @@
       <c r="M292" s="98"/>
       <c r="N292" s="108"/>
     </row>
-    <row r="293" spans="2:14">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B293" s="106"/>
       <c r="C293" s="98"/>
       <c r="D293" s="98"/>
@@ -9658,7 +9565,7 @@
       <c r="M293" s="98"/>
       <c r="N293" s="108"/>
     </row>
-    <row r="294" spans="2:14">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B294" s="106"/>
       <c r="C294" s="98"/>
       <c r="D294" s="98"/>
@@ -9673,7 +9580,7 @@
       <c r="M294" s="98"/>
       <c r="N294" s="108"/>
     </row>
-    <row r="295" spans="2:14">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B295" s="106"/>
       <c r="C295" s="98"/>
       <c r="D295" s="98"/>
@@ -9688,7 +9595,7 @@
       <c r="M295" s="98"/>
       <c r="N295" s="108"/>
     </row>
-    <row r="296" spans="2:14">
+    <row r="296" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B296" s="106"/>
       <c r="C296" s="98"/>
       <c r="D296" s="98"/>
@@ -9703,7 +9610,7 @@
       <c r="M296" s="98"/>
       <c r="N296" s="108"/>
     </row>
-    <row r="297" spans="2:14">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B297" s="106"/>
       <c r="C297" s="98"/>
       <c r="D297" s="98"/>
@@ -9718,7 +9625,7 @@
       <c r="M297" s="98"/>
       <c r="N297" s="108"/>
     </row>
-    <row r="298" spans="2:14">
+    <row r="298" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B298" s="106"/>
       <c r="C298" s="98"/>
       <c r="D298" s="98"/>
@@ -9733,7 +9640,7 @@
       <c r="M298" s="98"/>
       <c r="N298" s="108"/>
     </row>
-    <row r="299" spans="2:14">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B299" s="106"/>
       <c r="C299" s="98"/>
       <c r="D299" s="98"/>
@@ -9748,7 +9655,7 @@
       <c r="M299" s="98"/>
       <c r="N299" s="108"/>
     </row>
-    <row r="300" spans="2:14">
+    <row r="300" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B300" s="106"/>
       <c r="C300" s="98"/>
       <c r="D300" s="98"/>
@@ -9763,7 +9670,7 @@
       <c r="M300" s="98"/>
       <c r="N300" s="108"/>
     </row>
-    <row r="301" spans="2:14">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B301" s="106"/>
       <c r="C301" s="98"/>
       <c r="D301" s="98"/>
@@ -9778,7 +9685,7 @@
       <c r="M301" s="98"/>
       <c r="N301" s="108"/>
     </row>
-    <row r="302" spans="2:14">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B302" s="106"/>
       <c r="C302" s="98"/>
       <c r="D302" s="98"/>
@@ -9793,7 +9700,7 @@
       <c r="M302" s="98"/>
       <c r="N302" s="108"/>
     </row>
-    <row r="303" spans="2:14">
+    <row r="303" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B303" s="106"/>
       <c r="C303" s="98"/>
       <c r="D303" s="98"/>
@@ -9808,7 +9715,7 @@
       <c r="M303" s="98"/>
       <c r="N303" s="108"/>
     </row>
-    <row r="304" spans="2:14">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B304" s="106"/>
       <c r="C304" s="98"/>
       <c r="D304" s="98"/>
@@ -9823,7 +9730,7 @@
       <c r="M304" s="98"/>
       <c r="N304" s="108"/>
     </row>
-    <row r="305" spans="2:14">
+    <row r="305" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B305" s="106"/>
       <c r="C305" s="98"/>
       <c r="D305" s="98"/>
@@ -9838,7 +9745,7 @@
       <c r="M305" s="98"/>
       <c r="N305" s="108"/>
     </row>
-    <row r="306" spans="2:14">
+    <row r="306" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B306" s="106"/>
       <c r="C306" s="98"/>
       <c r="D306" s="98"/>
@@ -9853,7 +9760,7 @@
       <c r="M306" s="98"/>
       <c r="N306" s="108"/>
     </row>
-    <row r="307" spans="2:14">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B307" s="106"/>
       <c r="C307" s="98"/>
       <c r="D307" s="98"/>
@@ -9868,7 +9775,7 @@
       <c r="M307" s="98"/>
       <c r="N307" s="108"/>
     </row>
-    <row r="308" spans="2:14">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B308" s="106"/>
       <c r="C308" s="98"/>
       <c r="D308" s="98"/>
@@ -9883,7 +9790,7 @@
       <c r="M308" s="98"/>
       <c r="N308" s="108"/>
     </row>
-    <row r="309" spans="2:14">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B309" s="106"/>
       <c r="C309" s="98"/>
       <c r="D309" s="98"/>
@@ -9898,7 +9805,7 @@
       <c r="M309" s="98"/>
       <c r="N309" s="108"/>
     </row>
-    <row r="310" spans="2:14">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B310" s="106"/>
       <c r="C310" s="98"/>
       <c r="D310" s="98"/>
@@ -9913,7 +9820,7 @@
       <c r="M310" s="98"/>
       <c r="N310" s="108"/>
     </row>
-    <row r="311" spans="2:14">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B311" s="106"/>
       <c r="C311" s="98"/>
       <c r="D311" s="98"/>
@@ -9928,7 +9835,7 @@
       <c r="M311" s="98"/>
       <c r="N311" s="108"/>
     </row>
-    <row r="312" spans="2:14">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B312" s="106"/>
       <c r="C312" s="98"/>
       <c r="D312" s="98"/>
@@ -9943,7 +9850,7 @@
       <c r="M312" s="98"/>
       <c r="N312" s="108"/>
     </row>
-    <row r="313" spans="2:14">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B313" s="106"/>
       <c r="C313" s="98"/>
       <c r="D313" s="98"/>
@@ -9958,7 +9865,7 @@
       <c r="M313" s="98"/>
       <c r="N313" s="108"/>
     </row>
-    <row r="314" spans="2:14">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B314" s="106"/>
       <c r="C314" s="98"/>
       <c r="D314" s="98"/>
@@ -9973,7 +9880,7 @@
       <c r="M314" s="98"/>
       <c r="N314" s="108"/>
     </row>
-    <row r="315" spans="2:14">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B315" s="106"/>
       <c r="C315" s="98"/>
       <c r="D315" s="98"/>
@@ -9988,7 +9895,7 @@
       <c r="M315" s="98"/>
       <c r="N315" s="108"/>
     </row>
-    <row r="316" spans="2:14">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B316" s="106"/>
       <c r="C316" s="98"/>
       <c r="D316" s="98"/>
@@ -10003,7 +9910,7 @@
       <c r="M316" s="98"/>
       <c r="N316" s="108"/>
     </row>
-    <row r="317" spans="2:14">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B317" s="106"/>
       <c r="C317" s="98"/>
       <c r="D317" s="98"/>
@@ -10018,7 +9925,7 @@
       <c r="M317" s="98"/>
       <c r="N317" s="108"/>
     </row>
-    <row r="318" spans="2:14">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B318" s="106"/>
       <c r="C318" s="98"/>
       <c r="D318" s="98"/>
@@ -10033,7 +9940,7 @@
       <c r="M318" s="98"/>
       <c r="N318" s="108"/>
     </row>
-    <row r="319" spans="2:14">
+    <row r="319" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B319" s="106"/>
       <c r="C319" s="98"/>
       <c r="D319" s="98"/>
@@ -10048,7 +9955,7 @@
       <c r="M319" s="98"/>
       <c r="N319" s="108"/>
     </row>
-    <row r="320" spans="2:14">
+    <row r="320" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B320" s="106"/>
       <c r="C320" s="98"/>
       <c r="D320" s="98"/>
@@ -10063,7 +9970,7 @@
       <c r="M320" s="98"/>
       <c r="N320" s="108"/>
     </row>
-    <row r="321" spans="2:14">
+    <row r="321" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B321" s="106"/>
       <c r="C321" s="98"/>
       <c r="D321" s="98"/>
@@ -10078,7 +9985,7 @@
       <c r="M321" s="98"/>
       <c r="N321" s="108"/>
     </row>
-    <row r="322" spans="2:14">
+    <row r="322" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B322" s="106"/>
       <c r="C322" s="98"/>
       <c r="D322" s="98"/>
@@ -10093,7 +10000,7 @@
       <c r="M322" s="98"/>
       <c r="N322" s="108"/>
     </row>
-    <row r="323" spans="2:14">
+    <row r="323" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B323" s="106"/>
       <c r="C323" s="98"/>
       <c r="D323" s="98"/>
@@ -10108,7 +10015,7 @@
       <c r="M323" s="98"/>
       <c r="N323" s="108"/>
     </row>
-    <row r="324" spans="2:14">
+    <row r="324" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B324" s="106"/>
       <c r="C324" s="98"/>
       <c r="D324" s="98"/>
@@ -10123,7 +10030,7 @@
       <c r="M324" s="98"/>
       <c r="N324" s="108"/>
     </row>
-    <row r="325" spans="2:14">
+    <row r="325" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B325" s="106"/>
       <c r="C325" s="98"/>
       <c r="D325" s="98"/>
@@ -10138,7 +10045,7 @@
       <c r="M325" s="98"/>
       <c r="N325" s="108"/>
     </row>
-    <row r="326" spans="2:14">
+    <row r="326" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B326" s="106"/>
       <c r="C326" s="98"/>
       <c r="D326" s="98"/>
@@ -10153,7 +10060,7 @@
       <c r="M326" s="98"/>
       <c r="N326" s="108"/>
     </row>
-    <row r="327" spans="2:14">
+    <row r="327" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B327" s="106"/>
       <c r="C327" s="98"/>
       <c r="D327" s="98"/>
@@ -10168,7 +10075,7 @@
       <c r="M327" s="98"/>
       <c r="N327" s="108"/>
     </row>
-    <row r="328" spans="2:14">
+    <row r="328" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B328" s="106"/>
       <c r="C328" s="98"/>
       <c r="D328" s="98"/>
@@ -10183,7 +10090,7 @@
       <c r="M328" s="98"/>
       <c r="N328" s="108"/>
     </row>
-    <row r="329" spans="2:14">
+    <row r="329" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B329" s="106"/>
       <c r="C329" s="98"/>
       <c r="D329" s="98"/>
@@ -10198,7 +10105,7 @@
       <c r="M329" s="98"/>
       <c r="N329" s="108"/>
     </row>
-    <row r="330" spans="2:14">
+    <row r="330" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B330" s="106"/>
       <c r="C330" s="98"/>
       <c r="D330" s="98"/>
@@ -10213,7 +10120,7 @@
       <c r="M330" s="98"/>
       <c r="N330" s="108"/>
     </row>
-    <row r="331" spans="2:14">
+    <row r="331" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B331" s="106"/>
       <c r="C331" s="98"/>
       <c r="D331" s="98"/>
@@ -10228,7 +10135,7 @@
       <c r="M331" s="98"/>
       <c r="N331" s="108"/>
     </row>
-    <row r="332" spans="2:14">
+    <row r="332" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B332" s="106"/>
       <c r="C332" s="98"/>
       <c r="D332" s="98"/>
@@ -10243,7 +10150,7 @@
       <c r="M332" s="98"/>
       <c r="N332" s="108"/>
     </row>
-    <row r="333" spans="2:14">
+    <row r="333" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B333" s="106"/>
       <c r="C333" s="98"/>
       <c r="D333" s="98"/>
@@ -10258,7 +10165,7 @@
       <c r="M333" s="98"/>
       <c r="N333" s="108"/>
     </row>
-    <row r="334" spans="2:14">
+    <row r="334" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B334" s="106"/>
       <c r="C334" s="98"/>
       <c r="D334" s="98"/>
@@ -10273,7 +10180,7 @@
       <c r="M334" s="98"/>
       <c r="N334" s="108"/>
     </row>
-    <row r="335" spans="2:14">
+    <row r="335" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B335" s="106"/>
       <c r="C335" s="98"/>
       <c r="D335" s="98"/>
@@ -10288,7 +10195,7 @@
       <c r="M335" s="98"/>
       <c r="N335" s="108"/>
     </row>
-    <row r="336" spans="2:14">
+    <row r="336" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B336" s="106"/>
       <c r="C336" s="98"/>
       <c r="D336" s="98"/>
@@ -10303,7 +10210,7 @@
       <c r="M336" s="98"/>
       <c r="N336" s="108"/>
     </row>
-    <row r="337" spans="2:14">
+    <row r="337" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B337" s="106"/>
       <c r="C337" s="98"/>
       <c r="D337" s="98"/>
@@ -10322,10 +10229,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/buildings/buildings_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/buildings/buildings_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C2306-C084-4D41-9C24-0B4BFE60622B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8396059-F2BD-F346-9F80-6C37D5DC4F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>Source</t>
   </si>
@@ -824,6 +830,9 @@
   </si>
   <si>
     <t>buildings_solar_PV_solar_radiation.central_producer.ad</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -3224,12 +3233,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="74" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="72" customFormat="1">
@@ -3400,22 +3409,22 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD22"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="3" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="4"/>
+    <col min="7" max="7" width="32.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3861,7 +3870,9 @@
         <v>29</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="90"/>
+      <c r="I27" s="90" t="s">
+        <v>172</v>
+      </c>
       <c r="J27" s="140"/>
     </row>
     <row r="28" spans="1:11" ht="17" thickBot="1">
@@ -4324,23 +4335,23 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="42" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="42" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="42" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="42" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="42" customWidth="1"/>
     <col min="15" max="15" width="56" style="42" customWidth="1"/>
-    <col min="16" max="16384" width="10.6640625" style="42"/>
+    <col min="16" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
@@ -4912,18 +4923,18 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="92" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="92" customWidth="1"/>
     <col min="2" max="2" width="4" style="92" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="92" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="92" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="92" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="97" customWidth="1"/>
-    <col min="9" max="9" width="33.1640625" style="98" customWidth="1"/>
-    <col min="10" max="10" width="76.5" style="92" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="92"/>
+    <col min="3" max="3" width="27.85546875" style="92" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="92" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="97" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="98" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" style="92" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="92"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -5186,16 +5197,16 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="154" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="154" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="154"/>
-    <col min="4" max="4" width="7.5" style="154" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="154" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="154" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="154"/>
+    <col min="4" max="4" width="7.42578125" style="154" customWidth="1"/>
     <col min="5" max="5" width="13" style="154" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" style="154"/>
-    <col min="8" max="8" width="18.5" style="154" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="154"/>
+    <col min="6" max="7" width="10.7109375" style="154"/>
+    <col min="8" max="8" width="18.42578125" style="154" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="154"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
